--- a/app/resource/xlsx/major_proposal_template_1_stage1.xlsx
+++ b/app/resource/xlsx/major_proposal_template_1_stage1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C149545E-EDFF-4CE6-9983-773CEE3E0548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB78731-5C5B-4FA3-84C2-441D7F755BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="290">
   <si>
     <t>Mechanical Design Certificate</t>
   </si>
@@ -1010,9 +1010,6 @@
     <t>ATT:</t>
   </si>
   <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1020,6 +1017,9 @@
   </si>
   <si>
     <t>TOTAL (include GST)</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -1242,24 +1242,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1803,7 +1801,7 @@
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1927,7 +1925,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1938,9 +1935,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1953,14 +1947,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2118,9 +2105,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2136,9 +2120,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2148,7 +2129,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="32" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2188,7 +2196,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2209,20 +2217,11 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2233,7 +2232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2526,6 +2525,15 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3856,15 +3864,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y313"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A219" zoomScale="175" zoomScaleNormal="85" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A219" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="H228" sqref="H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="12" customWidth="1"/>
     <col min="2" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" customWidth="1"/>
@@ -3874,97 +3882,115 @@
     <col min="19" max="19" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
+    <row r="27" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
     </row>
     <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="163" t="s">
+      <c r="F37" s="164" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="163"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="162" t="s">
+      <c r="F38" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="162" t="s">
+      <c r="F39" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="162"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="162" t="s">
+      <c r="F40" s="163" t="s">
         <v>230</v>
       </c>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="162"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="163"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="162" t="s">
+      <c r="F41" s="163" t="s">
         <v>231</v>
       </c>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="162"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="128" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="161"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="162"/>
       <c r="I43" s="33" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135" t="e">
+      <c r="B45" s="139"/>
+      <c r="C45" s="139" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -3972,10 +3998,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="K46" s="135"/>
-      <c r="L46" s="135"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -4023,7 +4049,7 @@
       <c r="P49" s="45"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="13"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
@@ -4038,15 +4064,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="144"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
+      <c r="A51" s="148"/>
+      <c r="B51" s="148"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4071,26 +4097,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="136"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
+      <c r="A53" s="140"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="136"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4098,93 +4124,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="143"/>
-      <c r="R54" s="143"/>
-      <c r="S54" s="143"/>
-      <c r="T54" s="143"/>
-      <c r="U54" s="143"/>
-      <c r="V54" s="143"/>
-      <c r="W54" s="143"/>
-      <c r="X54" s="143"/>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="147"/>
+      <c r="S54" s="147"/>
+      <c r="T54" s="147"/>
+      <c r="U54" s="147"/>
+      <c r="V54" s="147"/>
+      <c r="W54" s="147"/>
+      <c r="X54" s="147"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="136" t="s">
+      <c r="A56" s="140" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="M56" s="141"/>
-      <c r="N56" s="141"/>
-      <c r="O56" s="141"/>
-      <c r="P56" s="141"/>
-      <c r="Q56" s="141"/>
-      <c r="R56" s="141"/>
-      <c r="S56" s="141"/>
-      <c r="T56" s="141"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="M56" s="145"/>
+      <c r="N56" s="145"/>
+      <c r="O56" s="145"/>
+      <c r="P56" s="145"/>
+      <c r="Q56" s="145"/>
+      <c r="R56" s="145"/>
+      <c r="S56" s="145"/>
+      <c r="T56" s="145"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
-      <c r="M57" s="141"/>
-      <c r="N57" s="141"/>
-      <c r="O57" s="141"/>
-      <c r="P57" s="141"/>
-      <c r="Q57" s="141"/>
-      <c r="R57" s="141"/>
-      <c r="S57" s="141"/>
-      <c r="T57" s="141"/>
+      <c r="A57" s="140"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="140"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="145"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="145"/>
+      <c r="S57" s="145"/>
+      <c r="T57" s="145"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="136"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="141"/>
-      <c r="O58" s="141"/>
-      <c r="P58" s="141"/>
-      <c r="Q58" s="141"/>
-      <c r="R58" s="141"/>
-      <c r="S58" s="141"/>
-      <c r="T58" s="141"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="M58" s="145"/>
+      <c r="N58" s="145"/>
+      <c r="O58" s="145"/>
+      <c r="P58" s="145"/>
+      <c r="Q58" s="145"/>
+      <c r="R58" s="145"/>
+      <c r="S58" s="145"/>
+      <c r="T58" s="145"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="136"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
-      <c r="M59" s="141"/>
-      <c r="N59" s="141"/>
-      <c r="O59" s="141"/>
-      <c r="P59" s="141"/>
-      <c r="Q59" s="141"/>
-      <c r="R59" s="141"/>
-      <c r="S59" s="141"/>
-      <c r="T59" s="141"/>
+      <c r="A59" s="140"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="M59" s="145"/>
+      <c r="N59" s="145"/>
+      <c r="O59" s="145"/>
+      <c r="P59" s="145"/>
+      <c r="Q59" s="145"/>
+      <c r="R59" s="145"/>
+      <c r="S59" s="145"/>
+      <c r="T59" s="145"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4202,30 +4228,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="136" t="s">
+      <c r="A61" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
-      <c r="F61" s="136"/>
-      <c r="G61" s="136"/>
-      <c r="H61" s="136"/>
-      <c r="I61" s="136"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="136"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="136"/>
-      <c r="F62" s="136"/>
-      <c r="G62" s="136"/>
-      <c r="H62" s="136"/>
-      <c r="I62" s="136"/>
+      <c r="A62" s="140"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4233,73 +4259,73 @@
       <c r="T62" s="25"/>
     </row>
     <row r="63" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="str">
+      <c r="A63" s="119" t="str">
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="136" t="s">
+      <c r="B63" s="140" t="s">
         <v>280</v>
       </c>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
     </row>
     <row r="64" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="str">
+      <c r="A64" s="119" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="136" t="s">
+      <c r="B64" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="136"/>
-      <c r="F64" s="136"/>
-      <c r="G64" s="136"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="136"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="str">
+      <c r="A65" s="119" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="136" t="s">
+      <c r="B65" s="140" t="s">
         <v>248</v>
       </c>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="136"/>
-      <c r="F65" s="136"/>
-      <c r="G65" s="136"/>
-      <c r="H65" s="136"/>
-      <c r="I65" s="136"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
     <row r="66" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="str">
+      <c r="A66" s="119" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="136" t="s">
+      <c r="B66" s="140" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="136"/>
-      <c r="G66" s="136"/>
-      <c r="H66" s="136"/>
-      <c r="I66" s="136"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4310,7 +4336,7 @@
       <c r="V66" s="43"/>
     </row>
     <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="79"/>
       <c r="K67" s="35"/>
       <c r="Q67" s="43"/>
       <c r="R67" s="43"/>
@@ -4320,34 +4346,34 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="136" t="s">
+      <c r="A68" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="B68" s="136"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="136"/>
-      <c r="F68" s="136"/>
-      <c r="G68" s="136"/>
-      <c r="H68" s="136"/>
-      <c r="I68" s="136"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="140"/>
+      <c r="G68" s="140"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="140"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="136"/>
-      <c r="B69" s="136"/>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="136"/>
-      <c r="G69" s="136"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="136"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="140"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
     <row r="70" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="79"/>
       <c r="L70" s="33"/>
       <c r="M70" s="35"/>
     </row>
@@ -4358,23 +4384,23 @@
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="43"/>
-      <c r="G71" s="55"/>
+      <c r="G71" s="54"/>
       <c r="H71" s="11"/>
       <c r="I71" s="43"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
     </row>
     <row r="72" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="79"/>
       <c r="K72" s="35"/>
       <c r="M72" s="35"/>
     </row>
     <row r="73" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="79"/>
       <c r="M73" s="35"/>
     </row>
     <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -4383,16 +4409,16 @@
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="53"/>
+      <c r="R74" s="53"/>
+      <c r="S74" s="53"/>
     </row>
     <row r="75" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
@@ -4403,7 +4429,7 @@
       <c r="I75" s="14"/>
     </row>
     <row r="76" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
       <c r="D76" s="36"/>
@@ -4427,7 +4453,7 @@
       <c r="K77" s="11"/>
     </row>
     <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4449,7 +4475,7 @@
       <c r="P80" s="36"/>
     </row>
     <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="63" t="s">
+      <c r="A81" s="130" t="s">
         <v>67</v>
       </c>
       <c r="B81" s="36"/>
@@ -4468,63 +4494,63 @@
       <c r="P81" s="36"/>
     </row>
     <row r="82" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="83" t="s">
+      <c r="B85" s="78" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="136"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136"/>
-      <c r="G86" s="136"/>
-      <c r="H86" s="136"/>
-      <c r="I86" s="136"/>
+      <c r="B86" s="140"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="140"/>
+      <c r="I86" s="140"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="136"/>
-      <c r="C87" s="136"/>
-      <c r="D87" s="136"/>
-      <c r="E87" s="136"/>
-      <c r="F87" s="136"/>
-      <c r="G87" s="136"/>
-      <c r="H87" s="136"/>
-      <c r="I87" s="136"/>
+      <c r="B87" s="140"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140"/>
+      <c r="F87" s="140"/>
+      <c r="G87" s="140"/>
+      <c r="H87" s="140"/>
+      <c r="I87" s="140"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="55"/>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
@@ -4540,13 +4566,13 @@
       <c r="B90" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="57"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="55"/>
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
       <c r="N90" s="36"/>
@@ -4556,17 +4582,17 @@
       <c r="R90"/>
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="136" t="s">
+      <c r="A91" s="79"/>
+      <c r="B91" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="C91" s="136"/>
-      <c r="D91" s="136"/>
-      <c r="E91" s="136"/>
-      <c r="F91" s="136"/>
-      <c r="G91" s="136"/>
-      <c r="H91" s="136"/>
-      <c r="I91" s="136"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="140"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="140"/>
+      <c r="H91" s="140"/>
+      <c r="I91" s="140"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4574,29 +4600,29 @@
       <c r="P91" s="36"/>
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="136"/>
-      <c r="C92" s="136"/>
-      <c r="D92" s="136"/>
-      <c r="E92" s="136"/>
-      <c r="F92" s="136"/>
-      <c r="G92" s="136"/>
-      <c r="H92" s="136"/>
-      <c r="I92" s="136"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="140"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="140"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="140"/>
+      <c r="H92" s="140"/>
+      <c r="I92" s="140"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="136"/>
-      <c r="C93" s="136"/>
-      <c r="D93" s="136"/>
-      <c r="E93" s="136"/>
-      <c r="F93" s="136"/>
-      <c r="G93" s="136"/>
-      <c r="H93" s="136"/>
-      <c r="I93" s="136"/>
+      <c r="A93" s="79"/>
+      <c r="B93" s="140"/>
+      <c r="C93" s="140"/>
+      <c r="D93" s="140"/>
+      <c r="E93" s="140"/>
+      <c r="F93" s="140"/>
+      <c r="G93" s="140"/>
+      <c r="H93" s="140"/>
+      <c r="I93" s="140"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="79"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -4616,7 +4642,7 @@
       <c r="R95" s="1"/>
     </row>
     <row r="96" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
+      <c r="A96" s="79"/>
       <c r="B96" t="s">
         <v>237</v>
       </c>
@@ -4624,449 +4650,449 @@
       <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="124" t="str">
+      <c r="A97" s="131" t="str">
         <f t="shared" ref="A97:A98" si="1">IF(B97&lt;&gt;"","•","")</f>
         <v/>
       </c>
-      <c r="B97" s="122"/>
-      <c r="C97" s="123"/>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="123"/>
-      <c r="H97" s="123"/>
-      <c r="I97" s="123"/>
+      <c r="B97" s="117"/>
+      <c r="C97" s="118"/>
+      <c r="D97" s="118"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="85"/>
+      <c r="M97" s="80"/>
       <c r="P97" s="42"/>
     </row>
     <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="124" t="str">
+      <c r="A98" s="131" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B98" s="122"/>
-      <c r="C98" s="123"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="123"/>
+      <c r="B98" s="117"/>
+      <c r="C98" s="118"/>
+      <c r="D98" s="118"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="118"/>
       <c r="L98" s="1"/>
-      <c r="M98" s="85"/>
+      <c r="M98" s="80"/>
       <c r="P98" s="42"/>
     </row>
     <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="124"/>
-      <c r="B99" s="122"/>
-      <c r="C99" s="123"/>
-      <c r="D99" s="123"/>
-      <c r="E99" s="123"/>
-      <c r="F99" s="123"/>
+      <c r="A99" s="131"/>
+      <c r="B99" s="117"/>
+      <c r="C99" s="118"/>
+      <c r="D99" s="118"/>
+      <c r="E99" s="118"/>
+      <c r="F99" s="118"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="85"/>
+      <c r="M99" s="80"/>
       <c r="P99" s="42"/>
     </row>
     <row r="100" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="124"/>
-      <c r="B100" s="122"/>
-      <c r="C100" s="123"/>
-      <c r="D100" s="123"/>
-      <c r="E100" s="123"/>
-      <c r="F100" s="123"/>
+      <c r="A100" s="131"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="118"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="85"/>
+      <c r="M100" s="80"/>
       <c r="P100" s="42"/>
     </row>
     <row r="101" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="124"/>
-      <c r="B101" s="122"/>
-      <c r="C101" s="123"/>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123"/>
+      <c r="A101" s="131"/>
+      <c r="B101" s="117"/>
+      <c r="C101" s="118"/>
+      <c r="D101" s="118"/>
+      <c r="E101" s="118"/>
+      <c r="F101" s="118"/>
       <c r="L101" s="1"/>
-      <c r="M101" s="85"/>
+      <c r="M101" s="80"/>
       <c r="P101" s="42"/>
     </row>
     <row r="102" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="124"/>
-      <c r="B102" s="122"/>
-      <c r="C102" s="123"/>
-      <c r="D102" s="123"/>
-      <c r="E102" s="123"/>
-      <c r="F102" s="123"/>
+      <c r="A102" s="131"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="118"/>
+      <c r="E102" s="118"/>
+      <c r="F102" s="118"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="85"/>
+      <c r="M102" s="80"/>
       <c r="P102" s="42"/>
     </row>
     <row r="103" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="124"/>
-      <c r="B103" s="122"/>
-      <c r="C103" s="123"/>
-      <c r="D103" s="123"/>
-      <c r="E103" s="123"/>
-      <c r="F103" s="123"/>
+      <c r="A103" s="131"/>
+      <c r="B103" s="117"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="118"/>
+      <c r="F103" s="118"/>
       <c r="L103" s="1"/>
-      <c r="M103" s="85"/>
+      <c r="M103" s="80"/>
       <c r="P103" s="42"/>
     </row>
     <row r="104" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="124"/>
-      <c r="B104" s="122"/>
-      <c r="C104" s="123"/>
-      <c r="D104" s="123"/>
-      <c r="E104" s="123"/>
-      <c r="F104" s="123"/>
+      <c r="A104" s="131"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="118"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="118"/>
+      <c r="F104" s="118"/>
       <c r="L104" s="1"/>
-      <c r="M104" s="85"/>
+      <c r="M104" s="80"/>
       <c r="P104" s="42"/>
     </row>
     <row r="105" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="124"/>
-      <c r="B105" s="122"/>
-      <c r="C105" s="123"/>
-      <c r="D105" s="123"/>
-      <c r="E105" s="123"/>
-      <c r="F105" s="123"/>
+      <c r="A105" s="131"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="118"/>
+      <c r="F105" s="118"/>
       <c r="L105" s="1"/>
-      <c r="M105" s="85"/>
+      <c r="M105" s="80"/>
       <c r="P105" s="42"/>
     </row>
     <row r="106" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="124"/>
-      <c r="B106" s="122"/>
-      <c r="C106" s="123"/>
-      <c r="D106" s="123"/>
-      <c r="E106" s="123"/>
-      <c r="F106" s="123"/>
+      <c r="A106" s="131"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="118"/>
+      <c r="D106" s="118"/>
+      <c r="E106" s="118"/>
+      <c r="F106" s="118"/>
       <c r="L106" s="1"/>
-      <c r="M106" s="85"/>
+      <c r="M106" s="80"/>
       <c r="P106" s="42"/>
     </row>
     <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="124"/>
-      <c r="B107" s="122"/>
-      <c r="C107" s="123"/>
-      <c r="D107" s="123"/>
-      <c r="E107" s="123"/>
-      <c r="F107" s="123"/>
+      <c r="A107" s="131"/>
+      <c r="B107" s="117"/>
+      <c r="C107" s="118"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="118"/>
+      <c r="F107" s="118"/>
       <c r="L107" s="1"/>
-      <c r="M107" s="85"/>
+      <c r="M107" s="80"/>
       <c r="P107" s="42"/>
     </row>
     <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="124"/>
-      <c r="B108" s="122"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="123"/>
-      <c r="F108" s="123"/>
+      <c r="A108" s="131"/>
+      <c r="B108" s="117"/>
+      <c r="C108" s="118"/>
+      <c r="D108" s="118"/>
+      <c r="E108" s="118"/>
+      <c r="F108" s="118"/>
       <c r="L108" s="1"/>
-      <c r="M108" s="85"/>
+      <c r="M108" s="80"/>
       <c r="P108" s="42"/>
     </row>
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="124"/>
-      <c r="B109" s="122"/>
-      <c r="C109" s="123"/>
-      <c r="D109" s="123"/>
-      <c r="E109" s="123"/>
-      <c r="F109" s="123"/>
+      <c r="A109" s="131"/>
+      <c r="B109" s="117"/>
+      <c r="C109" s="118"/>
+      <c r="D109" s="118"/>
+      <c r="E109" s="118"/>
+      <c r="F109" s="118"/>
       <c r="L109" s="1"/>
-      <c r="M109" s="85"/>
+      <c r="M109" s="80"/>
       <c r="P109" s="42"/>
     </row>
     <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="124"/>
-      <c r="B110" s="122"/>
-      <c r="C110" s="123"/>
-      <c r="D110" s="123"/>
-      <c r="E110" s="123"/>
-      <c r="F110" s="123"/>
+      <c r="A110" s="131"/>
+      <c r="B110" s="117"/>
+      <c r="C110" s="118"/>
+      <c r="D110" s="118"/>
+      <c r="E110" s="118"/>
+      <c r="F110" s="118"/>
       <c r="L110" s="1"/>
-      <c r="M110" s="85"/>
+      <c r="M110" s="80"/>
       <c r="P110" s="42"/>
     </row>
     <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="124"/>
-      <c r="B111" s="122"/>
-      <c r="C111" s="123"/>
-      <c r="D111" s="123"/>
-      <c r="E111" s="123"/>
-      <c r="F111" s="123"/>
+      <c r="A111" s="131"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="118"/>
+      <c r="E111" s="118"/>
+      <c r="F111" s="118"/>
       <c r="L111" s="1"/>
-      <c r="M111" s="85"/>
+      <c r="M111" s="80"/>
       <c r="P111" s="42"/>
     </row>
     <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="124"/>
-      <c r="B112" s="122"/>
-      <c r="C112" s="123"/>
-      <c r="D112" s="123"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="123"/>
+      <c r="A112" s="131"/>
+      <c r="B112" s="117"/>
+      <c r="C112" s="118"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="118"/>
+      <c r="F112" s="118"/>
       <c r="L112" s="1"/>
-      <c r="M112" s="85"/>
+      <c r="M112" s="80"/>
       <c r="P112" s="42"/>
     </row>
     <row r="113" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="124"/>
-      <c r="B113" s="122"/>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="123"/>
+      <c r="A113" s="131"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="118"/>
+      <c r="D113" s="118"/>
+      <c r="E113" s="118"/>
+      <c r="F113" s="118"/>
       <c r="L113" s="1"/>
-      <c r="M113" s="85"/>
+      <c r="M113" s="80"/>
       <c r="P113" s="42"/>
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="124"/>
-      <c r="B114" s="122"/>
+      <c r="A114" s="131"/>
+      <c r="B114" s="117"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="85"/>
+      <c r="M114" s="80"/>
       <c r="P114" s="42"/>
     </row>
     <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="124"/>
-      <c r="B115" s="122"/>
+      <c r="A115" s="131"/>
+      <c r="B115" s="117"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="85"/>
+      <c r="M115" s="80"/>
       <c r="P115" s="42"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="124"/>
-      <c r="B116" s="122"/>
+      <c r="A116" s="131"/>
+      <c r="B116" s="117"/>
       <c r="L116" s="1"/>
-      <c r="M116" s="85"/>
+      <c r="M116" s="80"/>
       <c r="P116" s="42"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="124"/>
-      <c r="B117" s="122"/>
-      <c r="C117" s="133"/>
-      <c r="D117" s="133"/>
-      <c r="E117" s="133"/>
-      <c r="F117" s="133"/>
-      <c r="G117" s="133"/>
-      <c r="H117" s="133"/>
-      <c r="I117" s="133"/>
+      <c r="A117" s="131"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="126"/>
+      <c r="D117" s="126"/>
+      <c r="E117" s="126"/>
+      <c r="F117" s="126"/>
+      <c r="G117" s="126"/>
+      <c r="H117" s="126"/>
+      <c r="I117" s="126"/>
       <c r="L117" s="1"/>
-      <c r="M117" s="85"/>
+      <c r="M117" s="80"/>
       <c r="P117" s="42"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="124"/>
-      <c r="B118" s="122"/>
-      <c r="C118" s="133"/>
-      <c r="D118" s="133"/>
-      <c r="E118" s="133"/>
-      <c r="F118" s="133"/>
-      <c r="G118" s="133"/>
-      <c r="H118" s="133"/>
-      <c r="I118" s="133"/>
+      <c r="A118" s="131"/>
+      <c r="B118" s="117"/>
+      <c r="C118" s="126"/>
+      <c r="D118" s="126"/>
+      <c r="E118" s="126"/>
+      <c r="F118" s="126"/>
+      <c r="G118" s="126"/>
+      <c r="H118" s="126"/>
+      <c r="I118" s="126"/>
       <c r="L118" s="1"/>
-      <c r="M118" s="85"/>
+      <c r="M118" s="80"/>
       <c r="P118" s="42"/>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="124"/>
-      <c r="B119" s="122"/>
-      <c r="C119" s="133"/>
-      <c r="D119" s="133"/>
-      <c r="E119" s="133"/>
-      <c r="F119" s="133"/>
-      <c r="G119" s="133"/>
-      <c r="H119" s="133"/>
-      <c r="I119" s="133"/>
+      <c r="A119" s="131"/>
+      <c r="B119" s="117"/>
+      <c r="C119" s="126"/>
+      <c r="D119" s="126"/>
+      <c r="E119" s="126"/>
+      <c r="F119" s="126"/>
+      <c r="G119" s="126"/>
+      <c r="H119" s="126"/>
+      <c r="I119" s="126"/>
       <c r="L119" s="1"/>
-      <c r="M119" s="85"/>
+      <c r="M119" s="80"/>
       <c r="P119" s="42"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="124"/>
-      <c r="B120" s="122"/>
-      <c r="C120" s="133"/>
-      <c r="D120" s="133"/>
-      <c r="E120" s="133"/>
-      <c r="F120" s="133"/>
-      <c r="G120" s="133"/>
-      <c r="H120" s="133"/>
-      <c r="I120" s="133"/>
+      <c r="A120" s="131"/>
+      <c r="B120" s="117"/>
+      <c r="C120" s="126"/>
+      <c r="D120" s="126"/>
+      <c r="E120" s="126"/>
+      <c r="F120" s="126"/>
+      <c r="G120" s="126"/>
+      <c r="H120" s="126"/>
+      <c r="I120" s="126"/>
       <c r="L120" s="1"/>
-      <c r="M120" s="85"/>
+      <c r="M120" s="80"/>
       <c r="P120" s="42"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="124"/>
-      <c r="B121" s="122"/>
-      <c r="C121" s="133"/>
-      <c r="D121" s="133"/>
-      <c r="E121" s="133"/>
-      <c r="F121" s="133"/>
-      <c r="G121" s="133"/>
-      <c r="H121" s="133"/>
-      <c r="I121" s="133"/>
+      <c r="A121" s="131"/>
+      <c r="B121" s="117"/>
+      <c r="C121" s="126"/>
+      <c r="D121" s="126"/>
+      <c r="E121" s="126"/>
+      <c r="F121" s="126"/>
+      <c r="G121" s="126"/>
+      <c r="H121" s="126"/>
+      <c r="I121" s="126"/>
       <c r="L121" s="1"/>
-      <c r="M121" s="85"/>
+      <c r="M121" s="80"/>
       <c r="P121" s="42"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="124"/>
-      <c r="B122" s="122"/>
-      <c r="C122" s="133"/>
-      <c r="D122" s="133"/>
-      <c r="E122" s="133"/>
-      <c r="F122" s="133"/>
-      <c r="G122" s="133"/>
-      <c r="H122" s="133"/>
-      <c r="I122" s="133"/>
+      <c r="A122" s="131"/>
+      <c r="B122" s="117"/>
+      <c r="C122" s="126"/>
+      <c r="D122" s="126"/>
+      <c r="E122" s="126"/>
+      <c r="F122" s="126"/>
+      <c r="G122" s="126"/>
+      <c r="H122" s="126"/>
+      <c r="I122" s="126"/>
       <c r="L122" s="1"/>
-      <c r="M122" s="85"/>
+      <c r="M122" s="80"/>
       <c r="P122" s="42"/>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="124"/>
-      <c r="B123" s="122"/>
-      <c r="C123" s="133"/>
-      <c r="D123" s="133"/>
-      <c r="E123" s="133"/>
-      <c r="F123" s="133"/>
-      <c r="G123" s="133"/>
-      <c r="H123" s="133"/>
-      <c r="I123" s="133"/>
+      <c r="A123" s="131"/>
+      <c r="B123" s="117"/>
+      <c r="C123" s="126"/>
+      <c r="D123" s="126"/>
+      <c r="E123" s="126"/>
+      <c r="F123" s="126"/>
+      <c r="G123" s="126"/>
+      <c r="H123" s="126"/>
+      <c r="I123" s="126"/>
       <c r="L123" s="1"/>
-      <c r="M123" s="85"/>
+      <c r="M123" s="80"/>
       <c r="P123" s="42"/>
     </row>
     <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="124"/>
-      <c r="B124" s="122"/>
+      <c r="A124" s="131"/>
+      <c r="B124" s="117"/>
       <c r="L124" s="1"/>
-      <c r="M124" s="85"/>
+      <c r="M124" s="80"/>
       <c r="P124" s="42"/>
     </row>
     <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="124"/>
-      <c r="B125" s="122"/>
+      <c r="A125" s="131"/>
+      <c r="B125" s="117"/>
       <c r="L125" s="1"/>
-      <c r="M125" s="85"/>
+      <c r="M125" s="80"/>
       <c r="P125" s="42"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="124"/>
-      <c r="B126" s="122"/>
+      <c r="A126" s="131"/>
+      <c r="B126" s="117"/>
       <c r="L126" s="1"/>
-      <c r="M126" s="85"/>
+      <c r="M126" s="80"/>
       <c r="P126" s="42"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="124"/>
-      <c r="B127" s="122"/>
-      <c r="M127" s="86"/>
+      <c r="A127" s="131"/>
+      <c r="B127" s="117"/>
+      <c r="M127" s="81"/>
       <c r="P127" s="42"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="124"/>
-      <c r="B128" s="122"/>
-      <c r="M128" s="86"/>
+      <c r="A128" s="131"/>
+      <c r="B128" s="117"/>
+      <c r="M128" s="81"/>
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
     <row r="129" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="124"/>
-      <c r="B129" s="122"/>
-      <c r="M129" s="86"/>
+      <c r="A129" s="131"/>
+      <c r="B129" s="117"/>
+      <c r="M129" s="81"/>
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
     </row>
     <row r="130" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="124"/>
-      <c r="B130" s="122"/>
-      <c r="C130" s="123"/>
-      <c r="D130" s="123"/>
-      <c r="E130" s="123"/>
-      <c r="F130" s="123"/>
-      <c r="G130" s="123"/>
-      <c r="H130" s="123"/>
-      <c r="I130" s="123"/>
-      <c r="M130" s="86"/>
+      <c r="A130" s="131"/>
+      <c r="B130" s="117"/>
+      <c r="C130" s="118"/>
+      <c r="D130" s="118"/>
+      <c r="E130" s="118"/>
+      <c r="F130" s="118"/>
+      <c r="G130" s="118"/>
+      <c r="H130" s="118"/>
+      <c r="I130" s="118"/>
+      <c r="M130" s="81"/>
       <c r="O130" s="42"/>
       <c r="P130" s="42"/>
     </row>
     <row r="131" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="125"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="125"/>
+      <c r="A131" s="119"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="58"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="58"/>
+      <c r="I131" s="119"/>
       <c r="O131" s="42"/>
       <c r="P131" s="42"/>
     </row>
     <row r="132" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="125"/>
-      <c r="C132" s="126"/>
+      <c r="A132" s="119"/>
+      <c r="C132" s="120"/>
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
       <c r="G132" s="28"/>
-      <c r="I132" s="127"/>
-      <c r="L132" s="58"/>
-      <c r="N132" s="58"/>
+      <c r="I132" s="121"/>
+      <c r="L132" s="56"/>
+      <c r="N132" s="56"/>
       <c r="O132" s="42"/>
       <c r="P132" s="42"/>
     </row>
     <row r="133" spans="1:20" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="125"/>
-      <c r="C133" s="126"/>
+      <c r="A133" s="119"/>
+      <c r="C133" s="120"/>
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
       <c r="G133" s="28"/>
-      <c r="I133" s="127"/>
-      <c r="L133" s="101" t="s">
+      <c r="I133" s="121"/>
+      <c r="L133" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="N133" s="58"/>
+      <c r="N133" s="56"/>
       <c r="O133" s="42"/>
       <c r="P133" s="42"/>
     </row>
     <row r="134" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
+      <c r="A134" s="119"/>
       <c r="L134" s="31" t="str">
         <f t="shared" ref="L134:L145" si="2">IF(M134&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M134" s="140" t="s">
+      <c r="M134" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="N134" s="140"/>
-      <c r="O134" s="140"/>
-      <c r="P134" s="140"/>
-      <c r="Q134" s="140"/>
-      <c r="R134" s="140"/>
-      <c r="S134" s="140"/>
-      <c r="T134" s="140"/>
+      <c r="N134" s="144"/>
+      <c r="O134" s="144"/>
+      <c r="P134" s="144"/>
+      <c r="Q134" s="144"/>
+      <c r="R134" s="144"/>
+      <c r="S134" s="144"/>
+      <c r="T134" s="144"/>
     </row>
     <row r="135" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="31"/>
+      <c r="A135" s="119"/>
       <c r="L135" s="31" t="str">
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M135" s="140" t="s">
+      <c r="M135" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="N135" s="140"/>
-      <c r="O135" s="140"/>
-      <c r="P135" s="140"/>
-      <c r="Q135" s="140"/>
-      <c r="R135" s="140"/>
-      <c r="S135" s="140"/>
-      <c r="T135" s="140"/>
+      <c r="N135" s="144"/>
+      <c r="O135" s="144"/>
+      <c r="P135" s="144"/>
+      <c r="Q135" s="144"/>
+      <c r="R135" s="144"/>
+      <c r="S135" s="144"/>
+      <c r="T135" s="144"/>
     </row>
     <row r="136" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="str">
+      <c r="A136" s="119" t="str">
         <f t="shared" ref="A136:A143" si="3">IF(B136&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -5086,7 +5112,7 @@
       <c r="T136" s="41"/>
     </row>
     <row r="137" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="31"/>
+      <c r="A137" s="119"/>
       <c r="L137" s="31"/>
       <c r="M137" s="41"/>
       <c r="N137" s="41"/>
@@ -5098,7 +5124,7 @@
       <c r="T137" s="41"/>
     </row>
     <row r="138" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
+      <c r="A138" s="119"/>
       <c r="L138" s="31" t="str">
         <f t="shared" si="2"/>
         <v>•</v>
@@ -5115,60 +5141,60 @@
       <c r="T138" s="41"/>
     </row>
     <row r="139" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
+      <c r="A139" s="119"/>
       <c r="L139" s="31" t="str">
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M139" s="136" t="s">
+      <c r="M139" s="140" t="s">
         <v>283</v>
       </c>
-      <c r="N139" s="136"/>
-      <c r="O139" s="136"/>
-      <c r="P139" s="136"/>
-      <c r="Q139" s="136"/>
-      <c r="R139" s="136"/>
-      <c r="S139" s="136"/>
-      <c r="T139" s="136"/>
+      <c r="N139" s="140"/>
+      <c r="O139" s="140"/>
+      <c r="P139" s="140"/>
+      <c r="Q139" s="140"/>
+      <c r="R139" s="140"/>
+      <c r="S139" s="140"/>
+      <c r="T139" s="140"/>
     </row>
     <row r="140" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
+      <c r="A140" s="119"/>
       <c r="L140" s="31"/>
-      <c r="M140" s="70"/>
-      <c r="N140" s="70"/>
-      <c r="O140" s="70"/>
-      <c r="P140" s="70"/>
-      <c r="Q140" s="70"/>
-      <c r="R140" s="70"/>
-      <c r="S140" s="70"/>
-      <c r="T140" s="70"/>
+      <c r="M140" s="65"/>
+      <c r="N140" s="65"/>
+      <c r="O140" s="65"/>
+      <c r="P140" s="65"/>
+      <c r="Q140" s="65"/>
+      <c r="R140" s="65"/>
+      <c r="S140" s="65"/>
+      <c r="T140" s="65"/>
     </row>
     <row r="141" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
+      <c r="A141" s="119"/>
       <c r="L141" s="31"/>
-      <c r="M141" s="70"/>
-      <c r="N141" s="70"/>
-      <c r="O141" s="70"/>
-      <c r="P141" s="70"/>
-      <c r="Q141" s="70"/>
-      <c r="R141" s="70"/>
-      <c r="S141" s="70"/>
-      <c r="T141" s="70"/>
+      <c r="M141" s="65"/>
+      <c r="N141" s="65"/>
+      <c r="O141" s="65"/>
+      <c r="P141" s="65"/>
+      <c r="Q141" s="65"/>
+      <c r="R141" s="65"/>
+      <c r="S141" s="65"/>
+      <c r="T141" s="65"/>
     </row>
     <row r="142" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
+      <c r="A142" s="119"/>
       <c r="L142" s="31"/>
-      <c r="M142" s="70"/>
-      <c r="N142" s="70"/>
-      <c r="O142" s="70"/>
-      <c r="P142" s="70"/>
-      <c r="Q142" s="70"/>
-      <c r="R142" s="70"/>
-      <c r="S142" s="70"/>
-      <c r="T142" s="70"/>
+      <c r="M142" s="65"/>
+      <c r="N142" s="65"/>
+      <c r="O142" s="65"/>
+      <c r="P142" s="65"/>
+      <c r="Q142" s="65"/>
+      <c r="R142" s="65"/>
+      <c r="S142" s="65"/>
+      <c r="T142" s="65"/>
     </row>
     <row r="143" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="31" t="str">
+      <c r="A143" s="119" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5176,19 +5202,19 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M143" s="140" t="s">
+      <c r="M143" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="N143" s="140"/>
-      <c r="O143" s="140"/>
-      <c r="P143" s="140"/>
-      <c r="Q143" s="140"/>
-      <c r="R143" s="140"/>
-      <c r="S143" s="140"/>
-      <c r="T143" s="140"/>
+      <c r="N143" s="144"/>
+      <c r="O143" s="144"/>
+      <c r="P143" s="144"/>
+      <c r="Q143" s="144"/>
+      <c r="R143" s="144"/>
+      <c r="S143" s="144"/>
+      <c r="T143" s="144"/>
     </row>
     <row r="144" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
+      <c r="A144" s="119"/>
       <c r="L144" s="31"/>
       <c r="M144" s="41"/>
       <c r="N144" s="41"/>
@@ -5200,121 +5226,121 @@
       <c r="T144" s="41"/>
     </row>
     <row r="145" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
+      <c r="A145" s="119"/>
       <c r="L145" s="31" t="str">
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M145" s="140" t="s">
+      <c r="M145" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="N145" s="140"/>
-      <c r="O145" s="140"/>
-      <c r="P145" s="140"/>
-      <c r="Q145" s="140"/>
-      <c r="R145" s="140"/>
-      <c r="S145" s="140"/>
-      <c r="T145" s="140"/>
+      <c r="N145" s="144"/>
+      <c r="O145" s="144"/>
+      <c r="P145" s="144"/>
+      <c r="Q145" s="144"/>
+      <c r="R145" s="144"/>
+      <c r="S145" s="144"/>
+      <c r="T145" s="144"/>
     </row>
     <row r="146" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="31"/>
+      <c r="A146" s="119"/>
       <c r="L146" s="31"/>
-      <c r="M146" s="140"/>
-      <c r="N146" s="140"/>
-      <c r="O146" s="140"/>
-      <c r="P146" s="140"/>
-      <c r="Q146" s="140"/>
-      <c r="R146" s="140"/>
-      <c r="S146" s="140"/>
-      <c r="T146" s="140"/>
+      <c r="M146" s="144"/>
+      <c r="N146" s="144"/>
+      <c r="O146" s="144"/>
+      <c r="P146" s="144"/>
+      <c r="Q146" s="144"/>
+      <c r="R146" s="144"/>
+      <c r="S146" s="144"/>
+      <c r="T146" s="144"/>
     </row>
     <row r="147" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="L147" s="89"/>
-      <c r="M147" s="105"/>
+      <c r="A147" s="119"/>
+      <c r="L147" s="84"/>
+      <c r="M147" s="100"/>
       <c r="N147" s="42"/>
       <c r="Q147" s="31"/>
     </row>
     <row r="148" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
-      <c r="L148" s="89"/>
-      <c r="M148" s="105"/>
+      <c r="A148" s="119"/>
+      <c r="L148" s="84"/>
+      <c r="M148" s="100"/>
       <c r="O148" s="42"/>
       <c r="P148" s="42"/>
     </row>
     <row r="149" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
-      <c r="L149" s="89" t="s">
+      <c r="A149" s="119"/>
+      <c r="L149" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="M149" s="105" t="s">
+      <c r="M149" s="100" t="s">
         <v>281</v>
       </c>
       <c r="O149" s="42"/>
       <c r="P149" s="42"/>
     </row>
     <row r="150" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="31" t="str">
+      <c r="A150" s="119" t="str">
         <f t="shared" ref="A150" si="4">IF(B150&lt;&gt;"","•","")</f>
         <v/>
       </c>
       <c r="L150" s="31"/>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
+      <c r="A151" s="79"/>
       <c r="L151" s="1"/>
-      <c r="M151" s="87"/>
+      <c r="M151" s="82"/>
     </row>
     <row r="152" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="125"/>
-      <c r="B152" s="127"/>
-      <c r="C152" s="127"/>
-      <c r="D152" s="127"/>
-      <c r="E152" s="127"/>
-      <c r="F152" s="127"/>
-      <c r="G152" s="127"/>
-      <c r="H152" s="127"/>
-      <c r="I152" s="127"/>
-      <c r="L152" s="97" t="s">
+      <c r="A152" s="119"/>
+      <c r="B152" s="121"/>
+      <c r="C152" s="121"/>
+      <c r="D152" s="121"/>
+      <c r="E152" s="121"/>
+      <c r="F152" s="121"/>
+      <c r="G152" s="121"/>
+      <c r="H152" s="121"/>
+      <c r="I152" s="121"/>
+      <c r="L152" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="M152" s="87"/>
+      <c r="M152" s="82"/>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A153" s="125"/>
-      <c r="C153" s="127"/>
-      <c r="D153" s="127"/>
-      <c r="E153" s="127"/>
-      <c r="F153" s="127"/>
-      <c r="G153" s="127"/>
-      <c r="H153" s="127"/>
-      <c r="I153" s="127"/>
-      <c r="L153" s="96" t="s">
+      <c r="A153" s="119"/>
+      <c r="C153" s="121"/>
+      <c r="D153" s="121"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="121"/>
+      <c r="G153" s="121"/>
+      <c r="H153" s="121"/>
+      <c r="I153" s="121"/>
+      <c r="L153" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="M153" s="81" t="s">
+      <c r="M153" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="N153" s="90"/>
-      <c r="O153" s="91"/>
+      <c r="N153" s="85"/>
+      <c r="O153" s="86"/>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A154" s="125"/>
-      <c r="B154" s="127"/>
-      <c r="C154" s="127"/>
-      <c r="D154" s="127"/>
-      <c r="E154" s="127"/>
-      <c r="F154" s="127"/>
-      <c r="G154" s="127"/>
-      <c r="H154" s="127"/>
-      <c r="I154" s="127"/>
+      <c r="A154" s="119"/>
+      <c r="B154" s="121"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="121"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="121"/>
+      <c r="G154" s="121"/>
+      <c r="H154" s="121"/>
+      <c r="I154" s="121"/>
       <c r="J154" s="29"/>
       <c r="K154" s="16"/>
-      <c r="L154" s="89"/>
+      <c r="L154" s="84"/>
       <c r="M154" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="O154" s="68"/>
+      <c r="O154" s="63"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
@@ -5324,22 +5350,22 @@
       <c r="X154" s="1"/>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A155" s="125"/>
-      <c r="B155" s="127"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="127"/>
-      <c r="E155" s="127"/>
-      <c r="F155" s="127"/>
-      <c r="G155" s="127"/>
-      <c r="H155" s="127"/>
-      <c r="I155" s="127"/>
+      <c r="A155" s="119"/>
+      <c r="B155" s="121"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="121"/>
+      <c r="E155" s="121"/>
+      <c r="F155" s="121"/>
+      <c r="G155" s="121"/>
+      <c r="H155" s="121"/>
+      <c r="I155" s="121"/>
       <c r="J155" s="29"/>
       <c r="K155" s="16"/>
-      <c r="L155" s="89"/>
-      <c r="M155" s="92" t="s">
+      <c r="L155" s="84"/>
+      <c r="M155" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="O155" s="68"/>
+      <c r="O155" s="63"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
@@ -5349,20 +5375,20 @@
       <c r="X155" s="1"/>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A156" s="125"/>
-      <c r="B156" s="127"/>
-      <c r="C156" s="127"/>
-      <c r="D156" s="127"/>
-      <c r="E156" s="127"/>
-      <c r="F156" s="127"/>
-      <c r="G156" s="127"/>
-      <c r="H156" s="127"/>
-      <c r="I156" s="127"/>
+      <c r="A156" s="119"/>
+      <c r="B156" s="121"/>
+      <c r="C156" s="121"/>
+      <c r="D156" s="121"/>
+      <c r="E156" s="121"/>
+      <c r="F156" s="121"/>
+      <c r="G156" s="121"/>
+      <c r="H156" s="121"/>
+      <c r="I156" s="121"/>
       <c r="J156" s="29"/>
       <c r="K156" s="16"/>
-      <c r="L156" s="89"/>
-      <c r="M156" s="92"/>
-      <c r="O156" s="68"/>
+      <c r="L156" s="84"/>
+      <c r="M156" s="87"/>
+      <c r="O156" s="63"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
@@ -5372,20 +5398,20 @@
       <c r="X156" s="1"/>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A157" s="125"/>
-      <c r="B157" s="127"/>
-      <c r="C157" s="127"/>
-      <c r="D157" s="127"/>
-      <c r="E157" s="127"/>
-      <c r="F157" s="127"/>
-      <c r="G157" s="127"/>
-      <c r="H157" s="127"/>
-      <c r="I157" s="127"/>
+      <c r="A157" s="119"/>
+      <c r="B157" s="121"/>
+      <c r="C157" s="121"/>
+      <c r="D157" s="121"/>
+      <c r="E157" s="121"/>
+      <c r="F157" s="121"/>
+      <c r="G157" s="121"/>
+      <c r="H157" s="121"/>
+      <c r="I157" s="121"/>
       <c r="J157" s="29"/>
       <c r="K157" s="16"/>
-      <c r="L157" s="89"/>
-      <c r="M157" s="92"/>
-      <c r="O157" s="68"/>
+      <c r="L157" s="84"/>
+      <c r="M157" s="87"/>
+      <c r="O157" s="63"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
@@ -5395,23 +5421,23 @@
       <c r="X157" s="1"/>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A158" s="125"/>
-      <c r="B158" s="127"/>
-      <c r="C158" s="127"/>
-      <c r="D158" s="127"/>
-      <c r="E158" s="127"/>
-      <c r="F158" s="127"/>
-      <c r="G158" s="127"/>
-      <c r="H158" s="127"/>
-      <c r="I158" s="127"/>
-      <c r="L158" s="103" t="s">
+      <c r="A158" s="119"/>
+      <c r="B158" s="121"/>
+      <c r="C158" s="121"/>
+      <c r="D158" s="121"/>
+      <c r="E158" s="121"/>
+      <c r="F158" s="121"/>
+      <c r="G158" s="121"/>
+      <c r="H158" s="121"/>
+      <c r="I158" s="121"/>
+      <c r="L158" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="M158" s="93" t="s">
+      <c r="M158" s="88" t="s">
         <v>239</v>
       </c>
-      <c r="N158" s="80"/>
-      <c r="O158" s="94"/>
+      <c r="N158" s="75"/>
+      <c r="O158" s="89"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
@@ -5420,20 +5446,20 @@
       <c r="X158" s="1"/>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A159" s="125"/>
-      <c r="B159" s="127"/>
-      <c r="C159" s="127"/>
-      <c r="D159" s="127"/>
-      <c r="E159" s="127"/>
-      <c r="F159" s="127"/>
-      <c r="G159" s="127"/>
-      <c r="H159" s="127"/>
-      <c r="I159" s="127"/>
-      <c r="L159" s="95"/>
-      <c r="M159" s="92" t="s">
+      <c r="A159" s="119"/>
+      <c r="B159" s="121"/>
+      <c r="C159" s="121"/>
+      <c r="D159" s="121"/>
+      <c r="E159" s="121"/>
+      <c r="F159" s="121"/>
+      <c r="G159" s="121"/>
+      <c r="H159" s="121"/>
+      <c r="I159" s="121"/>
+      <c r="L159" s="90"/>
+      <c r="M159" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="O159" s="68"/>
+      <c r="O159" s="63"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
@@ -5442,20 +5468,20 @@
       <c r="X159" s="1"/>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A160" s="125"/>
-      <c r="B160" s="127"/>
-      <c r="C160" s="127"/>
-      <c r="D160" s="127"/>
-      <c r="E160" s="127"/>
-      <c r="F160" s="127"/>
-      <c r="G160" s="127"/>
-      <c r="H160" s="127"/>
-      <c r="I160" s="127"/>
-      <c r="L160" s="95"/>
+      <c r="A160" s="119"/>
+      <c r="B160" s="121"/>
+      <c r="C160" s="121"/>
+      <c r="D160" s="121"/>
+      <c r="E160" s="121"/>
+      <c r="F160" s="121"/>
+      <c r="G160" s="121"/>
+      <c r="H160" s="121"/>
+      <c r="I160" s="121"/>
+      <c r="L160" s="90"/>
       <c r="M160" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="O160" s="68"/>
+      <c r="O160" s="63"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
@@ -5464,20 +5490,20 @@
       <c r="X160" s="1"/>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A161" s="125"/>
-      <c r="B161" s="127"/>
-      <c r="C161" s="127"/>
-      <c r="D161" s="127"/>
-      <c r="E161" s="127"/>
-      <c r="F161" s="127"/>
-      <c r="G161" s="127"/>
-      <c r="H161" s="127"/>
-      <c r="I161" s="127"/>
-      <c r="L161" s="95"/>
+      <c r="A161" s="119"/>
+      <c r="B161" s="121"/>
+      <c r="C161" s="121"/>
+      <c r="D161" s="121"/>
+      <c r="E161" s="121"/>
+      <c r="F161" s="121"/>
+      <c r="G161" s="121"/>
+      <c r="H161" s="121"/>
+      <c r="I161" s="121"/>
+      <c r="L161" s="90"/>
       <c r="M161" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="O161" s="68"/>
+      <c r="O161" s="63"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
@@ -5486,20 +5512,20 @@
       <c r="X161" s="1"/>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A162" s="125"/>
-      <c r="B162" s="127"/>
-      <c r="C162" s="127"/>
-      <c r="D162" s="127"/>
-      <c r="E162" s="127"/>
-      <c r="F162" s="127"/>
-      <c r="G162" s="127"/>
-      <c r="H162" s="127"/>
-      <c r="I162" s="127"/>
-      <c r="L162" s="95"/>
+      <c r="A162" s="119"/>
+      <c r="B162" s="121"/>
+      <c r="C162" s="121"/>
+      <c r="D162" s="121"/>
+      <c r="E162" s="121"/>
+      <c r="F162" s="121"/>
+      <c r="G162" s="121"/>
+      <c r="H162" s="121"/>
+      <c r="I162" s="121"/>
+      <c r="L162" s="90"/>
       <c r="M162" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="O162" s="68"/>
+      <c r="O162" s="63"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
@@ -5508,18 +5534,18 @@
       <c r="X162" s="1"/>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A163" s="125"/>
-      <c r="B163" s="127"/>
-      <c r="C163" s="127"/>
-      <c r="D163" s="127"/>
-      <c r="E163" s="127"/>
-      <c r="F163" s="127"/>
-      <c r="G163" s="127"/>
-      <c r="H163" s="127"/>
-      <c r="I163" s="127"/>
-      <c r="L163" s="95"/>
+      <c r="A163" s="119"/>
+      <c r="B163" s="121"/>
+      <c r="C163" s="121"/>
+      <c r="D163" s="121"/>
+      <c r="E163" s="121"/>
+      <c r="F163" s="121"/>
+      <c r="G163" s="121"/>
+      <c r="H163" s="121"/>
+      <c r="I163" s="121"/>
+      <c r="L163" s="90"/>
       <c r="M163" s="25"/>
-      <c r="O163" s="68"/>
+      <c r="O163" s="63"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
@@ -5528,19 +5554,19 @@
       <c r="X163" s="1"/>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A164" s="125"/>
-      <c r="B164" s="127"/>
-      <c r="C164" s="127"/>
-      <c r="D164" s="127"/>
-      <c r="E164" s="127"/>
-      <c r="F164" s="127"/>
-      <c r="G164" s="127"/>
-      <c r="H164" s="127"/>
-      <c r="I164" s="127"/>
-      <c r="L164" s="99"/>
-      <c r="M164" s="102"/>
+      <c r="A164" s="119"/>
+      <c r="B164" s="121"/>
+      <c r="C164" s="121"/>
+      <c r="D164" s="121"/>
+      <c r="E164" s="121"/>
+      <c r="F164" s="121"/>
+      <c r="G164" s="121"/>
+      <c r="H164" s="121"/>
+      <c r="I164" s="121"/>
+      <c r="L164" s="94"/>
+      <c r="M164" s="97"/>
       <c r="N164" s="6"/>
-      <c r="O164" s="100"/>
+      <c r="O164" s="95"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
@@ -5549,22 +5575,22 @@
       <c r="X164" s="1"/>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A165" s="125"/>
-      <c r="B165" s="127"/>
-      <c r="C165" s="127"/>
-      <c r="D165" s="127"/>
-      <c r="E165" s="127"/>
-      <c r="F165" s="127"/>
-      <c r="G165" s="127"/>
-      <c r="H165" s="127"/>
-      <c r="I165" s="127"/>
-      <c r="L165" s="89" t="s">
+      <c r="A165" s="119"/>
+      <c r="B165" s="121"/>
+      <c r="C165" s="121"/>
+      <c r="D165" s="121"/>
+      <c r="E165" s="121"/>
+      <c r="F165" s="121"/>
+      <c r="G165" s="121"/>
+      <c r="H165" s="121"/>
+      <c r="I165" s="121"/>
+      <c r="L165" s="84" t="s">
         <v>257</v>
       </c>
       <c r="M165" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="O165" s="68"/>
+      <c r="O165" s="63"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
@@ -5573,157 +5599,157 @@
       <c r="X165" s="1"/>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A166" s="125"/>
-      <c r="B166" s="127"/>
-      <c r="C166" s="127"/>
-      <c r="D166" s="127"/>
-      <c r="E166" s="127"/>
-      <c r="F166" s="127"/>
-      <c r="G166" s="127"/>
-      <c r="H166" s="127"/>
-      <c r="I166" s="127"/>
-      <c r="L166" s="67"/>
+      <c r="A166" s="119"/>
+      <c r="B166" s="121"/>
+      <c r="C166" s="121"/>
+      <c r="D166" s="121"/>
+      <c r="E166" s="121"/>
+      <c r="F166" s="121"/>
+      <c r="G166" s="121"/>
+      <c r="H166" s="121"/>
+      <c r="I166" s="121"/>
+      <c r="L166" s="62"/>
       <c r="M166" t="s">
         <v>263</v>
       </c>
-      <c r="O166" s="68"/>
+      <c r="O166" s="63"/>
       <c r="T166" s="1"/>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A167" s="125"/>
-      <c r="B167" s="127"/>
-      <c r="C167" s="127"/>
-      <c r="D167" s="127"/>
-      <c r="E167" s="127"/>
-      <c r="F167" s="127"/>
-      <c r="G167" s="127"/>
-      <c r="H167" s="127"/>
-      <c r="I167" s="127"/>
-      <c r="L167" s="67"/>
+      <c r="A167" s="119"/>
+      <c r="B167" s="121"/>
+      <c r="C167" s="121"/>
+      <c r="D167" s="121"/>
+      <c r="E167" s="121"/>
+      <c r="F167" s="121"/>
+      <c r="G167" s="121"/>
+      <c r="H167" s="121"/>
+      <c r="I167" s="121"/>
+      <c r="L167" s="62"/>
       <c r="M167" t="s">
         <v>264</v>
       </c>
-      <c r="O167" s="68"/>
+      <c r="O167" s="63"/>
       <c r="T167" s="1"/>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A168" s="125"/>
-      <c r="B168" s="127"/>
-      <c r="C168" s="127"/>
-      <c r="D168" s="127"/>
-      <c r="E168" s="127"/>
-      <c r="F168" s="127"/>
-      <c r="G168" s="127"/>
-      <c r="H168" s="127"/>
-      <c r="I168" s="127"/>
-      <c r="L168" s="67"/>
-      <c r="O168" s="68"/>
+      <c r="A168" s="119"/>
+      <c r="B168" s="121"/>
+      <c r="C168" s="121"/>
+      <c r="D168" s="121"/>
+      <c r="E168" s="121"/>
+      <c r="F168" s="121"/>
+      <c r="G168" s="121"/>
+      <c r="H168" s="121"/>
+      <c r="I168" s="121"/>
+      <c r="L168" s="62"/>
+      <c r="O168" s="63"/>
       <c r="T168" s="1"/>
     </row>
     <row r="169" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="125"/>
-      <c r="B169" s="127"/>
-      <c r="C169" s="127"/>
-      <c r="D169" s="127"/>
-      <c r="E169" s="127"/>
-      <c r="F169" s="127"/>
-      <c r="G169" s="127"/>
-      <c r="H169" s="127"/>
-      <c r="I169" s="127"/>
-      <c r="L169" s="104"/>
-      <c r="M169" s="82"/>
+      <c r="A169" s="119"/>
+      <c r="B169" s="121"/>
+      <c r="C169" s="121"/>
+      <c r="D169" s="121"/>
+      <c r="E169" s="121"/>
+      <c r="F169" s="121"/>
+      <c r="G169" s="121"/>
+      <c r="H169" s="121"/>
+      <c r="I169" s="121"/>
+      <c r="L169" s="99"/>
+      <c r="M169" s="77"/>
       <c r="N169" s="21"/>
-      <c r="O169" s="69"/>
+      <c r="O169" s="64"/>
       <c r="T169" s="1"/>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A170" s="125"/>
-      <c r="B170" s="127"/>
-      <c r="C170" s="127"/>
-      <c r="D170" s="127"/>
-      <c r="E170" s="127"/>
-      <c r="F170" s="127"/>
-      <c r="G170" s="127"/>
-      <c r="H170" s="127"/>
-      <c r="I170" s="127"/>
+      <c r="A170" s="119"/>
+      <c r="B170" s="121"/>
+      <c r="C170" s="121"/>
+      <c r="D170" s="121"/>
+      <c r="E170" s="121"/>
+      <c r="F170" s="121"/>
+      <c r="G170" s="121"/>
+      <c r="H170" s="121"/>
+      <c r="I170" s="121"/>
       <c r="L170" s="31"/>
       <c r="M170" s="16"/>
     </row>
     <row r="171" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="125"/>
-      <c r="B171" s="127"/>
-      <c r="C171" s="127"/>
-      <c r="D171" s="127"/>
-      <c r="E171" s="127"/>
-      <c r="F171" s="127"/>
-      <c r="G171" s="127"/>
-      <c r="H171" s="127"/>
-      <c r="I171" s="127"/>
+      <c r="A171" s="119"/>
+      <c r="B171" s="121"/>
+      <c r="C171" s="121"/>
+      <c r="D171" s="121"/>
+      <c r="E171" s="121"/>
+      <c r="F171" s="121"/>
+      <c r="G171" s="121"/>
+      <c r="H171" s="121"/>
+      <c r="I171" s="121"/>
     </row>
     <row r="172" spans="1:24" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="31"/>
-      <c r="L172" s="58" t="s">
+      <c r="A172" s="119"/>
+      <c r="L172" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="str">
+      <c r="A173" s="119" t="str">
         <f t="shared" ref="A173:A176" si="5">IF(B173&lt;&gt;"","•","")</f>
         <v/>
       </c>
-      <c r="L173" s="98" t="s">
+      <c r="L173" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M173" s="81" t="s">
+      <c r="M173" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="N173" s="81"/>
-      <c r="O173" s="88"/>
+      <c r="N173" s="76"/>
+      <c r="O173" s="83"/>
     </row>
     <row r="174" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="31" t="str">
+      <c r="A174" s="119" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L174" s="89" t="s">
+      <c r="L174" s="84" t="s">
         <v>15</v>
       </c>
       <c r="M174" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="O174" s="76"/>
+      <c r="O174" s="71"/>
     </row>
     <row r="175" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="31" t="str">
+      <c r="A175" s="119" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L175" s="89" t="s">
+      <c r="L175" s="84" t="s">
         <v>15</v>
       </c>
       <c r="M175" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="O175" s="76"/>
+      <c r="O175" s="71"/>
     </row>
     <row r="176" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="31" t="str">
+      <c r="A176" s="119" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L176" s="89" t="s">
+      <c r="L176" s="84" t="s">
         <v>15</v>
       </c>
       <c r="M176" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="O176" s="76"/>
+      <c r="O176" s="71"/>
     </row>
     <row r="177" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="59" t="s">
+      <c r="A177" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B177" s="58" t="s">
+      <c r="B177" s="56" t="s">
         <v>211</v>
       </c>
       <c r="D177" s="42"/>
@@ -5731,18 +5757,18 @@
       <c r="F177" s="42"/>
       <c r="G177" s="42"/>
       <c r="H177" s="42"/>
-      <c r="I177" s="57"/>
-      <c r="K177" s="58"/>
+      <c r="I177" s="55"/>
+      <c r="K177" s="56"/>
       <c r="L177"/>
       <c r="N177" s="42"/>
       <c r="O177" s="42"/>
       <c r="P177" s="42"/>
     </row>
     <row r="178" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="64" t="s">
+      <c r="A178" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="B178" s="58" t="s">
+      <c r="B178" s="56" t="s">
         <v>224</v>
       </c>
       <c r="D178" s="42"/>
@@ -5750,97 +5776,97 @@
       <c r="F178" s="42"/>
       <c r="G178" s="42"/>
       <c r="H178" s="42"/>
-      <c r="I178" s="57"/>
-      <c r="K178" s="58"/>
+      <c r="I178" s="55"/>
+      <c r="K178" s="56"/>
       <c r="N178" s="42"/>
       <c r="O178" s="42"/>
       <c r="P178" s="42"/>
     </row>
     <row r="179" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="59"/>
-      <c r="B179" s="136" t="s">
+      <c r="A179" s="57"/>
+      <c r="B179" s="140" t="s">
         <v>282</v>
       </c>
-      <c r="C179" s="136"/>
-      <c r="D179" s="136"/>
-      <c r="E179" s="136"/>
-      <c r="F179" s="136"/>
-      <c r="G179" s="136"/>
-      <c r="H179" s="136"/>
-      <c r="I179" s="136"/>
-      <c r="K179" s="58"/>
+      <c r="C179" s="140"/>
+      <c r="D179" s="140"/>
+      <c r="E179" s="140"/>
+      <c r="F179" s="140"/>
+      <c r="G179" s="140"/>
+      <c r="H179" s="140"/>
+      <c r="I179" s="140"/>
+      <c r="K179" s="56"/>
       <c r="N179" s="42"/>
       <c r="O179" s="42"/>
       <c r="P179" s="42"/>
     </row>
     <row r="180" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="59"/>
-      <c r="B180" s="136"/>
-      <c r="C180" s="136"/>
-      <c r="D180" s="136"/>
-      <c r="E180" s="136"/>
-      <c r="F180" s="136"/>
-      <c r="G180" s="136"/>
-      <c r="H180" s="136"/>
-      <c r="I180" s="136"/>
-      <c r="K180" s="58"/>
+      <c r="A180" s="57"/>
+      <c r="B180" s="140"/>
+      <c r="C180" s="140"/>
+      <c r="D180" s="140"/>
+      <c r="E180" s="140"/>
+      <c r="F180" s="140"/>
+      <c r="G180" s="140"/>
+      <c r="H180" s="140"/>
+      <c r="I180" s="140"/>
+      <c r="K180" s="56"/>
       <c r="M180" s="42"/>
       <c r="N180" s="42"/>
       <c r="O180" s="42"/>
       <c r="P180" s="42"/>
     </row>
     <row r="181" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="59"/>
-      <c r="B181" s="136"/>
-      <c r="C181" s="136"/>
-      <c r="D181" s="136"/>
-      <c r="E181" s="136"/>
-      <c r="F181" s="136"/>
-      <c r="G181" s="136"/>
-      <c r="H181" s="136"/>
-      <c r="I181" s="136"/>
-      <c r="K181" s="58"/>
+      <c r="A181" s="57"/>
+      <c r="B181" s="140"/>
+      <c r="C181" s="140"/>
+      <c r="D181" s="140"/>
+      <c r="E181" s="140"/>
+      <c r="F181" s="140"/>
+      <c r="G181" s="140"/>
+      <c r="H181" s="140"/>
+      <c r="I181" s="140"/>
+      <c r="K181" s="56"/>
       <c r="M181" s="42"/>
       <c r="N181" s="42"/>
       <c r="O181" s="42"/>
       <c r="P181" s="42"/>
     </row>
     <row r="182" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="59"/>
-      <c r="B182" s="136"/>
-      <c r="C182" s="136"/>
-      <c r="D182" s="136"/>
-      <c r="E182" s="136"/>
-      <c r="F182" s="136"/>
-      <c r="G182" s="136"/>
-      <c r="H182" s="136"/>
-      <c r="I182" s="136"/>
-      <c r="K182" s="58"/>
+      <c r="A182" s="57"/>
+      <c r="B182" s="140"/>
+      <c r="C182" s="140"/>
+      <c r="D182" s="140"/>
+      <c r="E182" s="140"/>
+      <c r="F182" s="140"/>
+      <c r="G182" s="140"/>
+      <c r="H182" s="140"/>
+      <c r="I182" s="140"/>
+      <c r="K182" s="56"/>
       <c r="M182" s="42"/>
       <c r="N182" s="42"/>
       <c r="O182" s="42"/>
       <c r="P182" s="42"/>
     </row>
     <row r="183" spans="1:17" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="59"/>
-      <c r="B183" s="58"/>
+      <c r="A183" s="57"/>
+      <c r="B183" s="56"/>
       <c r="D183" s="42"/>
       <c r="E183" s="42"/>
       <c r="F183" s="42"/>
       <c r="G183" s="42"/>
       <c r="H183" s="42"/>
-      <c r="I183" s="57"/>
-      <c r="K183" s="58"/>
+      <c r="I183" s="55"/>
+      <c r="K183" s="56"/>
       <c r="M183" s="42"/>
       <c r="N183" s="42"/>
       <c r="O183" s="42"/>
       <c r="P183" s="42"/>
     </row>
     <row r="184" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="58">
+      <c r="A184" s="133">
         <v>3.2</v>
       </c>
-      <c r="B184" s="58" t="s">
+      <c r="B184" s="56" t="s">
         <v>226</v>
       </c>
       <c r="D184" s="42"/>
@@ -5848,52 +5874,52 @@
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
       <c r="H184" s="42"/>
-      <c r="I184" s="57"/>
-      <c r="K184" s="58"/>
+      <c r="I184" s="55"/>
+      <c r="K184" s="56"/>
       <c r="M184" s="42"/>
       <c r="N184" s="42"/>
       <c r="O184" s="42"/>
       <c r="P184" s="42"/>
     </row>
     <row r="185" spans="1:17" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="59"/>
-      <c r="B185" s="136" t="s">
+      <c r="A185" s="57"/>
+      <c r="B185" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="C185" s="136"/>
-      <c r="D185" s="136"/>
-      <c r="E185" s="136"/>
-      <c r="F185" s="136"/>
-      <c r="G185" s="136"/>
-      <c r="H185" s="136"/>
-      <c r="I185" s="136"/>
-      <c r="K185" s="58"/>
+      <c r="C185" s="140"/>
+      <c r="D185" s="140"/>
+      <c r="E185" s="140"/>
+      <c r="F185" s="140"/>
+      <c r="G185" s="140"/>
+      <c r="H185" s="140"/>
+      <c r="I185" s="140"/>
+      <c r="K185" s="56"/>
       <c r="M185" s="42"/>
       <c r="N185" s="42"/>
       <c r="O185" s="42"/>
       <c r="P185" s="42"/>
     </row>
     <row r="186" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="59"/>
-      <c r="B186" s="136"/>
-      <c r="C186" s="136"/>
-      <c r="D186" s="136"/>
-      <c r="E186" s="136"/>
-      <c r="F186" s="136"/>
-      <c r="G186" s="136"/>
-      <c r="H186" s="136"/>
-      <c r="I186" s="136"/>
-      <c r="K186" s="58" t="s">
+      <c r="A186" s="57"/>
+      <c r="B186" s="140"/>
+      <c r="C186" s="140"/>
+      <c r="D186" s="140"/>
+      <c r="E186" s="140"/>
+      <c r="F186" s="140"/>
+      <c r="G186" s="140"/>
+      <c r="H186" s="140"/>
+      <c r="I186" s="140"/>
+      <c r="K186" s="56" t="s">
         <v>218</v>
       </c>
       <c r="M186" s="42"/>
       <c r="N186" s="42"/>
       <c r="O186" s="42"/>
       <c r="P186" s="42"/>
-      <c r="Q186" s="58"/>
+      <c r="Q186" s="56"/>
     </row>
     <row r="187" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="33" t="s">
+      <c r="A187" s="134" t="s">
         <v>15</v>
       </c>
       <c r="B187" s="25" t="s">
@@ -5904,7 +5930,7 @@
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
       <c r="H187" s="42"/>
-      <c r="I187" s="57"/>
+      <c r="I187" s="55"/>
       <c r="K187" s="16" t="s">
         <v>216</v>
       </c>
@@ -5912,10 +5938,10 @@
       <c r="N187" s="42"/>
       <c r="O187" s="42"/>
       <c r="P187" s="42"/>
-      <c r="Q187" s="66"/>
+      <c r="Q187" s="61"/>
     </row>
     <row r="188" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="33" t="s">
+      <c r="A188" s="134" t="s">
         <v>15</v>
       </c>
       <c r="B188" s="25" t="s">
@@ -5926,70 +5952,70 @@
       <c r="F188" s="42"/>
       <c r="G188" s="42"/>
       <c r="H188" s="42"/>
-      <c r="I188" s="57"/>
-      <c r="K188" s="65" t="s">
+      <c r="I188" s="55"/>
+      <c r="K188" s="60" t="s">
         <v>217</v>
       </c>
       <c r="M188" s="42"/>
       <c r="N188" s="42"/>
       <c r="O188" s="42"/>
       <c r="P188" s="42"/>
-      <c r="Q188" s="66"/>
+      <c r="Q188" s="61"/>
     </row>
     <row r="189" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="33"/>
+      <c r="A189" s="134"/>
       <c r="B189" s="25"/>
       <c r="D189" s="42"/>
       <c r="E189" s="42"/>
       <c r="F189" s="42"/>
       <c r="G189" s="42"/>
       <c r="H189" s="42"/>
-      <c r="I189" s="57"/>
-      <c r="K189" s="65" t="s">
+      <c r="I189" s="55"/>
+      <c r="K189" s="60" t="s">
         <v>219</v>
       </c>
       <c r="M189" s="42"/>
       <c r="N189" s="42"/>
       <c r="O189" s="42"/>
       <c r="P189" s="42"/>
-      <c r="Q189" s="66"/>
+      <c r="Q189" s="61"/>
     </row>
     <row r="190" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="33"/>
+      <c r="A190" s="134"/>
       <c r="B190" s="25"/>
       <c r="D190" s="42"/>
       <c r="E190" s="42"/>
       <c r="F190" s="42"/>
       <c r="G190" s="42"/>
       <c r="H190" s="42"/>
-      <c r="I190" s="57"/>
-      <c r="K190" s="65"/>
+      <c r="I190" s="55"/>
+      <c r="K190" s="60"/>
       <c r="M190" s="42"/>
       <c r="N190" s="42"/>
       <c r="O190" s="42"/>
       <c r="P190" s="42"/>
-      <c r="Q190" s="66"/>
+      <c r="Q190" s="61"/>
     </row>
     <row r="191" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="59"/>
-      <c r="B191" s="58"/>
+      <c r="A191" s="57"/>
+      <c r="B191" s="56"/>
       <c r="D191" s="42"/>
       <c r="E191" s="42"/>
       <c r="F191" s="42"/>
       <c r="G191" s="42"/>
       <c r="H191" s="42"/>
-      <c r="I191" s="57"/>
-      <c r="K191" s="58"/>
+      <c r="I191" s="55"/>
+      <c r="K191" s="56"/>
       <c r="M191" s="42"/>
       <c r="N191" s="42"/>
       <c r="O191" s="42"/>
       <c r="P191" s="42"/>
     </row>
     <row r="192" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="58">
+      <c r="A192" s="133">
         <v>3.3</v>
       </c>
-      <c r="B192" s="58" t="s">
+      <c r="B192" s="56" t="s">
         <v>227</v>
       </c>
       <c r="D192" s="42"/>
@@ -5997,36 +6023,36 @@
       <c r="F192" s="42"/>
       <c r="G192" s="42"/>
       <c r="H192" s="42"/>
-      <c r="I192" s="57"/>
+      <c r="I192" s="55"/>
       <c r="M192" s="42"/>
       <c r="N192" s="42"/>
       <c r="O192" s="42"/>
       <c r="P192" s="42"/>
     </row>
     <row r="193" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="58"/>
-      <c r="B193" s="140" t="s">
+      <c r="A193" s="133"/>
+      <c r="B193" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="C193" s="140"/>
-      <c r="D193" s="140"/>
-      <c r="E193" s="140"/>
-      <c r="F193" s="140"/>
-      <c r="G193" s="140"/>
-      <c r="H193" s="140"/>
-      <c r="I193" s="140"/>
-      <c r="K193" s="58" t="s">
+      <c r="C193" s="144"/>
+      <c r="D193" s="144"/>
+      <c r="E193" s="144"/>
+      <c r="F193" s="144"/>
+      <c r="G193" s="144"/>
+      <c r="H193" s="144"/>
+      <c r="I193" s="144"/>
+      <c r="K193" s="56" t="s">
         <v>279</v>
       </c>
       <c r="M193" s="42"/>
       <c r="N193" s="42"/>
       <c r="O193" s="42"/>
       <c r="P193" s="42"/>
-      <c r="R193" s="58"/>
-      <c r="X193" s="58"/>
+      <c r="R193" s="56"/>
+      <c r="X193" s="56"/>
     </row>
     <row r="194" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="31" t="str">
+      <c r="A194" s="119" t="str">
         <f t="shared" ref="A194:A203" si="6">IF(B194&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -6038,7 +6064,7 @@
       <c r="D194" s="29"/>
       <c r="E194" s="25"/>
       <c r="F194" s="29"/>
-      <c r="K194" s="121"/>
+      <c r="K194" s="116"/>
       <c r="L194" s="25"/>
       <c r="M194" s="25"/>
       <c r="N194" s="29"/>
@@ -6049,7 +6075,7 @@
       <c r="X194" s="33"/>
     </row>
     <row r="195" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="31" t="str">
+      <c r="A195" s="119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6061,7 +6087,7 @@
       <c r="D195" s="48"/>
       <c r="E195" s="47"/>
       <c r="F195" s="48"/>
-      <c r="K195" s="73"/>
+      <c r="K195" s="68"/>
       <c r="L195" s="25"/>
       <c r="M195" s="25"/>
       <c r="N195" s="48"/>
@@ -6072,7 +6098,7 @@
       <c r="X195" s="33"/>
     </row>
     <row r="196" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="31" t="str">
+      <c r="A196" s="119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6084,7 +6110,7 @@
       <c r="D196" s="48"/>
       <c r="E196" s="47"/>
       <c r="F196" s="48"/>
-      <c r="K196" s="73"/>
+      <c r="K196" s="68"/>
       <c r="L196" s="25"/>
       <c r="M196" s="25"/>
       <c r="N196" s="48"/>
@@ -6096,7 +6122,7 @@
       <c r="Y196" s="25"/>
     </row>
     <row r="197" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="31" t="str">
+      <c r="A197" s="119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6108,7 +6134,7 @@
       <c r="D197" s="25"/>
       <c r="E197" s="47"/>
       <c r="F197" s="47"/>
-      <c r="K197" s="73"/>
+      <c r="K197" s="68"/>
       <c r="L197" s="25"/>
       <c r="M197" s="35"/>
       <c r="N197" s="25"/>
@@ -6119,7 +6145,7 @@
       <c r="X197" s="33"/>
     </row>
     <row r="198" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="31" t="str">
+      <c r="A198" s="119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6131,7 +6157,7 @@
       <c r="D198" s="35"/>
       <c r="E198" s="35"/>
       <c r="F198" s="35"/>
-      <c r="K198" s="73"/>
+      <c r="K198" s="68"/>
       <c r="L198" s="25"/>
       <c r="M198" s="35"/>
       <c r="N198" s="35"/>
@@ -6142,7 +6168,7 @@
       <c r="X198" s="33"/>
     </row>
     <row r="199" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="31" t="str">
+      <c r="A199" s="119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6154,8 +6180,8 @@
       <c r="D199"/>
       <c r="E199"/>
       <c r="F199"/>
-      <c r="K199" s="73"/>
-      <c r="L199" s="74"/>
+      <c r="K199" s="68"/>
+      <c r="L199" s="69"/>
       <c r="O199"/>
       <c r="P199"/>
       <c r="R199" s="33"/>
@@ -6164,7 +6190,7 @@
       <c r="Y199" s="25"/>
     </row>
     <row r="200" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="31" t="str">
+      <c r="A200" s="119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6176,7 +6202,7 @@
       <c r="D200"/>
       <c r="E200" s="34"/>
       <c r="F200"/>
-      <c r="K200" s="73"/>
+      <c r="K200" s="68"/>
       <c r="L200" s="25"/>
       <c r="M200"/>
       <c r="N200"/>
@@ -6187,7 +6213,7 @@
       <c r="X200" s="33"/>
     </row>
     <row r="201" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="31" t="str">
+      <c r="A201" s="119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6195,7 +6221,7 @@
         <f t="array" ref="B201">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=$K$194,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="K201" s="73"/>
+      <c r="K201" s="68"/>
       <c r="L201" s="25"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -6204,7 +6230,7 @@
       <c r="X201" s="33"/>
     </row>
     <row r="202" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="31" t="str">
+      <c r="A202" s="119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6216,7 +6242,7 @@
       <c r="D202"/>
       <c r="E202"/>
       <c r="F202"/>
-      <c r="K202" s="73"/>
+      <c r="K202" s="68"/>
       <c r="M202"/>
       <c r="N202"/>
       <c r="O202"/>
@@ -6225,7 +6251,7 @@
       <c r="X202" s="33"/>
     </row>
     <row r="203" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="31" t="str">
+      <c r="A203" s="119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6237,45 +6263,45 @@
       <c r="D203"/>
       <c r="E203"/>
       <c r="F203"/>
-      <c r="K203" s="73"/>
-      <c r="L203" s="74"/>
+      <c r="K203" s="68"/>
+      <c r="L203" s="69"/>
       <c r="R203" s="33"/>
       <c r="X203" s="33"/>
     </row>
     <row r="204" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="31"/>
+      <c r="A204" s="119"/>
       <c r="R204" s="33"/>
     </row>
     <row r="205" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="58">
+      <c r="A205" s="133">
         <v>3.4</v>
       </c>
-      <c r="B205" s="58" t="s">
+      <c r="B205" s="56" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="58"/>
-      <c r="B206" s="135" t="s">
+      <c r="A206" s="133"/>
+      <c r="B206" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C206" s="135"/>
-      <c r="D206" s="135"/>
-      <c r="E206" s="135"/>
-      <c r="F206" s="135"/>
-      <c r="G206" s="135"/>
-      <c r="H206" s="135"/>
-      <c r="I206" s="135"/>
+      <c r="C206" s="139"/>
+      <c r="D206" s="139"/>
+      <c r="E206" s="139"/>
+      <c r="F206" s="139"/>
+      <c r="G206" s="139"/>
+      <c r="H206" s="139"/>
+      <c r="I206" s="139"/>
       <c r="K206" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="58"/>
-      <c r="B207" s="79" t="s">
+      <c r="A207" s="133"/>
+      <c r="B207" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E207" s="62" t="s">
+      <c r="E207" s="59" t="s">
         <v>214</v>
       </c>
       <c r="K207" s="1" t="s">
@@ -6292,7 +6318,7 @@
       <c r="E208" s="16"/>
     </row>
     <row r="209" spans="1:20" s="25" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209"/>
+      <c r="A209" s="12"/>
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
       <c r="D209" s="42"/>
@@ -6305,10 +6331,10 @@
       <c r="R209"/>
     </row>
     <row r="210" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="59" t="s">
+      <c r="A210" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B210" s="58" t="s">
+      <c r="B210" s="56" t="s">
         <v>137</v>
       </c>
       <c r="D210" s="42"/>
@@ -6316,78 +6342,79 @@
       <c r="F210" s="42"/>
       <c r="G210" s="42"/>
       <c r="H210" s="42"/>
-      <c r="I210" s="57"/>
-      <c r="K210" s="58"/>
+      <c r="I210" s="55"/>
+      <c r="K210" s="56"/>
       <c r="M210" s="42"/>
       <c r="N210" s="42"/>
       <c r="O210"/>
       <c r="P210" s="42"/>
     </row>
     <row r="211" spans="1:20" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="140" t="s">
+      <c r="A211" s="121"/>
+      <c r="B211" s="144" t="s">
         <v>222</v>
       </c>
-      <c r="C211" s="140"/>
-      <c r="D211" s="140"/>
-      <c r="E211" s="140"/>
-      <c r="F211" s="140"/>
-      <c r="G211" s="140"/>
-      <c r="H211" s="140"/>
-      <c r="I211" s="140"/>
-      <c r="K211" s="58"/>
-      <c r="L211" s="60"/>
+      <c r="C211" s="144"/>
+      <c r="D211" s="144"/>
+      <c r="E211" s="144"/>
+      <c r="F211" s="144"/>
+      <c r="G211" s="144"/>
+      <c r="H211" s="144"/>
+      <c r="I211" s="144"/>
+      <c r="K211" s="56"/>
+      <c r="L211" s="58"/>
     </row>
     <row r="212" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="78" t="s">
+      <c r="B212" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="C212" s="78"/>
-      <c r="D212" s="137" t="s">
+      <c r="C212" s="73"/>
+      <c r="D212" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="E212" s="137"/>
-      <c r="F212" s="137" t="s">
+      <c r="E212" s="141"/>
+      <c r="F212" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="G212" s="137"/>
+      <c r="G212" s="141"/>
       <c r="H212" s="29"/>
       <c r="O212" s="25"/>
       <c r="P212" s="29"/>
     </row>
     <row r="213" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="53" t="s">
+      <c r="B213" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C213" s="53"/>
-      <c r="D213" s="139" t="s">
+      <c r="C213" s="52"/>
+      <c r="D213" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="E213" s="139"/>
-      <c r="F213" s="138">
+      <c r="E213" s="143"/>
+      <c r="F213" s="142">
         <v>10000000</v>
       </c>
-      <c r="G213" s="138"/>
+      <c r="G213" s="142"/>
       <c r="H213" s="48"/>
       <c r="I213" s="25"/>
       <c r="O213" s="47"/>
       <c r="P213" s="48"/>
     </row>
     <row r="214" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="53" t="s">
+      <c r="B214" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C214" s="53"/>
-      <c r="D214" s="139" t="s">
+      <c r="C214" s="52"/>
+      <c r="D214" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="E214" s="139"/>
-      <c r="F214" s="138">
+      <c r="E214" s="143"/>
+      <c r="F214" s="142">
         <v>20000000</v>
       </c>
-      <c r="G214" s="138"/>
+      <c r="G214" s="142"/>
       <c r="H214" s="48"/>
       <c r="O214" s="47"/>
-      <c r="P214" s="65"/>
+      <c r="P214" s="60"/>
       <c r="Q214" s="25"/>
       <c r="R214" s="29"/>
       <c r="S214" s="25"/>
@@ -6408,7 +6435,7 @@
       <c r="M215" s="35"/>
       <c r="N215" s="25"/>
       <c r="O215" s="47"/>
-      <c r="P215" s="65"/>
+      <c r="P215" s="60"/>
       <c r="Q215" s="25"/>
       <c r="R215" s="48"/>
       <c r="S215" s="47"/>
@@ -6428,93 +6455,93 @@
       <c r="M216" s="35"/>
       <c r="N216" s="35"/>
       <c r="O216" s="35"/>
-      <c r="P216" s="65"/>
+      <c r="P216" s="60"/>
       <c r="Q216" s="25"/>
       <c r="R216" s="48"/>
       <c r="S216" s="47"/>
       <c r="T216" s="48"/>
     </row>
     <row r="217" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="59" t="s">
+      <c r="A217" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="B217" s="58" t="s">
+      <c r="B217" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C217" s="60"/>
-      <c r="I217" s="57"/>
-      <c r="K217" s="58"/>
-      <c r="L217" s="60"/>
-      <c r="P217" s="65"/>
+      <c r="C217" s="58"/>
+      <c r="I217" s="55"/>
+      <c r="K217" s="56"/>
+      <c r="L217" s="58"/>
+      <c r="P217" s="60"/>
       <c r="Q217" s="35"/>
       <c r="R217" s="25"/>
       <c r="S217" s="47"/>
       <c r="T217" s="47"/>
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="136" t="s">
+      <c r="A218" s="79"/>
+      <c r="B218" s="140" t="s">
         <v>204</v>
       </c>
-      <c r="C218" s="136"/>
-      <c r="D218" s="136"/>
-      <c r="E218" s="136"/>
-      <c r="F218" s="136"/>
-      <c r="G218" s="136"/>
-      <c r="H218" s="136"/>
-      <c r="I218" s="136"/>
-      <c r="P218" s="65"/>
+      <c r="C218" s="140"/>
+      <c r="D218" s="140"/>
+      <c r="E218" s="140"/>
+      <c r="F218" s="140"/>
+      <c r="G218" s="140"/>
+      <c r="H218" s="140"/>
+      <c r="I218" s="140"/>
+      <c r="P218" s="60"/>
       <c r="Q218" s="35"/>
       <c r="R218" s="35"/>
       <c r="S218" s="35"/>
       <c r="T218" s="35"/>
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="136"/>
-      <c r="C219" s="136"/>
-      <c r="D219" s="136"/>
-      <c r="E219" s="136"/>
-      <c r="F219" s="136"/>
-      <c r="G219" s="136"/>
-      <c r="H219" s="136"/>
-      <c r="I219" s="136"/>
-      <c r="P219" s="65"/>
+      <c r="A219" s="79"/>
+      <c r="B219" s="140"/>
+      <c r="C219" s="140"/>
+      <c r="D219" s="140"/>
+      <c r="E219" s="140"/>
+      <c r="F219" s="140"/>
+      <c r="G219" s="140"/>
+      <c r="H219" s="140"/>
+      <c r="I219" s="140"/>
+      <c r="P219" s="60"/>
     </row>
     <row r="220" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="136"/>
-      <c r="C220" s="136"/>
-      <c r="D220" s="136"/>
-      <c r="E220" s="136"/>
-      <c r="F220" s="136"/>
-      <c r="G220" s="136"/>
-      <c r="H220" s="136"/>
-      <c r="I220" s="136"/>
-      <c r="P220" s="65"/>
+      <c r="A220" s="79"/>
+      <c r="B220" s="140"/>
+      <c r="C220" s="140"/>
+      <c r="D220" s="140"/>
+      <c r="E220" s="140"/>
+      <c r="F220" s="140"/>
+      <c r="G220" s="140"/>
+      <c r="H220" s="140"/>
+      <c r="I220" s="140"/>
+      <c r="P220" s="60"/>
       <c r="S220" s="34"/>
     </row>
     <row r="221" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="136"/>
-      <c r="C221" s="136"/>
-      <c r="D221" s="136"/>
-      <c r="E221" s="136"/>
-      <c r="F221" s="136"/>
-      <c r="G221" s="136"/>
-      <c r="H221" s="136"/>
-      <c r="I221" s="136"/>
-      <c r="P221" s="65"/>
+      <c r="A221" s="79"/>
+      <c r="B221" s="140"/>
+      <c r="C221" s="140"/>
+      <c r="D221" s="140"/>
+      <c r="E221" s="140"/>
+      <c r="F221" s="140"/>
+      <c r="G221" s="140"/>
+      <c r="H221" s="140"/>
+      <c r="I221" s="140"/>
+      <c r="P221" s="60"/>
       <c r="Q221" s="16"/>
       <c r="R221" s="16"/>
       <c r="S221" s="16"/>
       <c r="T221" s="16"/>
     </row>
     <row r="222" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="59" t="s">
+      <c r="A222" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="B222" s="58" t="s">
+      <c r="B222" s="56" t="s">
         <v>70</v>
       </c>
       <c r="D222" s="42"/>
@@ -6522,8 +6549,8 @@
       <c r="F222" s="42"/>
       <c r="G222" s="42"/>
       <c r="H222" s="42"/>
-      <c r="I222" s="57"/>
-      <c r="K222" s="58"/>
+      <c r="I222" s="55"/>
+      <c r="K222" s="56"/>
       <c r="M222" s="42"/>
       <c r="N222" s="42"/>
       <c r="O222" s="42"/>
@@ -6549,180 +6576,180 @@
       <c r="P223" s="42"/>
     </row>
     <row r="224" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="136" t="s">
+      <c r="B224" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="C224" s="136"/>
-      <c r="D224" s="136"/>
-      <c r="E224" s="136"/>
-      <c r="F224" s="136"/>
-      <c r="G224" s="136"/>
-      <c r="H224" s="136"/>
-      <c r="I224" s="136"/>
+      <c r="C224" s="140"/>
+      <c r="D224" s="140"/>
+      <c r="E224" s="140"/>
+      <c r="F224" s="140"/>
+      <c r="G224" s="140"/>
+      <c r="H224" s="140"/>
+      <c r="I224" s="140"/>
     </row>
     <row r="225" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="136"/>
-      <c r="C225" s="136"/>
-      <c r="D225" s="136"/>
-      <c r="E225" s="136"/>
-      <c r="F225" s="136"/>
-      <c r="G225" s="136"/>
-      <c r="H225" s="136"/>
-      <c r="I225" s="136"/>
+      <c r="B225" s="140"/>
+      <c r="C225" s="140"/>
+      <c r="D225" s="140"/>
+      <c r="E225" s="140"/>
+      <c r="F225" s="140"/>
+      <c r="G225" s="140"/>
+      <c r="H225" s="140"/>
+      <c r="I225" s="140"/>
     </row>
     <row r="226" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="148" t="s">
+      <c r="B226" s="152" t="s">
+        <v>202</v>
+      </c>
+      <c r="C226" s="152"/>
+      <c r="D226" s="153"/>
+      <c r="E226" s="154"/>
+      <c r="F226" s="154"/>
+      <c r="G226" s="155"/>
+      <c r="H226" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="C226" s="148"/>
-      <c r="D226" s="149"/>
-      <c r="E226" s="150"/>
-      <c r="F226" s="150"/>
-      <c r="G226" s="151"/>
-      <c r="H226" s="148" t="s">
-        <v>287</v>
-      </c>
-      <c r="K226" s="58"/>
-      <c r="L226" s="109" t="s">
+      <c r="K226" s="56"/>
+      <c r="L226" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="M226" s="115"/>
-      <c r="N226" s="116"/>
-      <c r="O226" s="112" t="s">
+      <c r="M226" s="110"/>
+      <c r="N226" s="111"/>
+      <c r="O226" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="P226" s="112" t="s">
+      <c r="P226" s="107" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="148"/>
-      <c r="C227" s="148"/>
-      <c r="D227" s="152"/>
-      <c r="E227" s="153"/>
-      <c r="F227" s="153"/>
-      <c r="G227" s="154"/>
-      <c r="H227" s="148"/>
+      <c r="B227" s="152"/>
+      <c r="C227" s="152"/>
+      <c r="D227" s="156"/>
+      <c r="E227" s="157"/>
+      <c r="F227" s="157"/>
+      <c r="G227" s="158"/>
+      <c r="H227" s="152"/>
       <c r="I227" s="25"/>
-      <c r="L227" s="111" t="s">
+      <c r="L227" s="106" t="s">
         <v>269</v>
       </c>
-      <c r="M227" s="75"/>
-      <c r="N227" s="118"/>
-      <c r="O227" s="107">
+      <c r="M227" s="70"/>
+      <c r="N227" s="113"/>
+      <c r="O227" s="102">
         <v>45000</v>
       </c>
-      <c r="P227" s="107">
+      <c r="P227" s="102">
         <f t="shared" ref="P227:P228" si="7">O227*1.1</f>
         <v>49500.000000000007</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="158"/>
-      <c r="C228" s="158"/>
-      <c r="D228" s="155"/>
-      <c r="E228" s="156"/>
-      <c r="F228" s="156"/>
-      <c r="G228" s="157"/>
-      <c r="H228" s="130"/>
+      <c r="B228" s="159"/>
+      <c r="C228" s="159"/>
+      <c r="D228" s="262"/>
+      <c r="E228" s="263"/>
+      <c r="F228" s="263"/>
+      <c r="G228" s="264"/>
+      <c r="H228" s="138"/>
       <c r="I228" s="25"/>
-      <c r="L228" s="108" t="s">
+      <c r="L228" s="103" t="s">
         <v>278</v>
       </c>
-      <c r="M228" s="113"/>
-      <c r="N228" s="110"/>
-      <c r="O228" s="119">
+      <c r="M228" s="108"/>
+      <c r="N228" s="105"/>
+      <c r="O228" s="114">
         <v>45000</v>
       </c>
-      <c r="P228" s="107">
+      <c r="P228" s="102">
         <f t="shared" si="7"/>
         <v>49500.000000000007</v>
       </c>
     </row>
     <row r="229" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="147" t="s">
+      <c r="B229" s="151" t="s">
+        <v>287</v>
+      </c>
+      <c r="C229" s="151"/>
+      <c r="D229" s="151"/>
+      <c r="E229" s="151"/>
+      <c r="F229" s="151"/>
+      <c r="G229" s="151"/>
+      <c r="H229" s="138"/>
+      <c r="I229" s="25"/>
+      <c r="L229" s="101"/>
+      <c r="M229" s="115"/>
+      <c r="N229" s="115"/>
+      <c r="O229" s="102"/>
+      <c r="P229" s="102"/>
+    </row>
+    <row r="230" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="151" t="s">
         <v>288</v>
       </c>
-      <c r="C229" s="147"/>
-      <c r="D229" s="147"/>
-      <c r="E229" s="147"/>
-      <c r="F229" s="147"/>
-      <c r="G229" s="147"/>
-      <c r="H229" s="130"/>
-      <c r="I229" s="25"/>
-      <c r="L229" s="106"/>
-      <c r="M229" s="120"/>
-      <c r="N229" s="120"/>
-      <c r="O229" s="107"/>
-      <c r="P229" s="107"/>
-    </row>
-    <row r="230" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="147" t="s">
-        <v>289</v>
-      </c>
-      <c r="C230" s="147"/>
-      <c r="D230" s="147"/>
-      <c r="E230" s="147"/>
-      <c r="F230" s="147"/>
-      <c r="G230" s="147"/>
-      <c r="H230" s="130"/>
+      <c r="C230" s="151"/>
+      <c r="D230" s="151"/>
+      <c r="E230" s="151"/>
+      <c r="F230" s="151"/>
+      <c r="G230" s="151"/>
+      <c r="H230" s="138"/>
       <c r="I230" s="25"/>
-      <c r="L230" s="106"/>
-      <c r="M230" s="120"/>
-      <c r="N230" s="120"/>
-      <c r="O230" s="107"/>
-      <c r="P230" s="107"/>
+      <c r="L230" s="101"/>
+      <c r="M230" s="115"/>
+      <c r="N230" s="115"/>
+      <c r="O230" s="102"/>
+      <c r="P230" s="102"/>
     </row>
     <row r="231" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="131"/>
-      <c r="C231" s="131"/>
-      <c r="D231" s="131"/>
-      <c r="E231" s="131"/>
-      <c r="F231" s="131"/>
-      <c r="G231" s="131"/>
-      <c r="H231" s="132"/>
+      <c r="B231" s="124"/>
+      <c r="C231" s="124"/>
+      <c r="D231" s="124"/>
+      <c r="E231" s="124"/>
+      <c r="F231" s="124"/>
+      <c r="G231" s="124"/>
+      <c r="H231" s="125"/>
       <c r="I231" s="25"/>
-      <c r="L231" s="106"/>
-      <c r="M231" s="120"/>
-      <c r="N231" s="120"/>
-      <c r="O231" s="107"/>
-      <c r="P231" s="107"/>
+      <c r="L231" s="101"/>
+      <c r="M231" s="115"/>
+      <c r="N231" s="115"/>
+      <c r="O231" s="102"/>
+      <c r="P231" s="102"/>
     </row>
     <row r="232" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="131"/>
-      <c r="C232" s="131"/>
-      <c r="D232" s="131"/>
-      <c r="E232" s="131"/>
-      <c r="F232" s="131"/>
-      <c r="G232" s="131"/>
-      <c r="H232" s="132"/>
+      <c r="B232" s="124"/>
+      <c r="C232" s="124"/>
+      <c r="D232" s="124"/>
+      <c r="E232" s="124"/>
+      <c r="F232" s="124"/>
+      <c r="G232" s="124"/>
+      <c r="H232" s="125"/>
       <c r="I232" s="25"/>
-      <c r="L232" s="106"/>
-      <c r="M232" s="120"/>
-      <c r="N232" s="120"/>
-      <c r="O232" s="107"/>
-      <c r="P232" s="107"/>
+      <c r="L232" s="101"/>
+      <c r="M232" s="115"/>
+      <c r="N232" s="115"/>
+      <c r="O232" s="102"/>
+      <c r="P232" s="102"/>
     </row>
     <row r="233" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="58"/>
-      <c r="C233" s="58"/>
-      <c r="D233" s="58"/>
-      <c r="E233" s="58"/>
-      <c r="F233" s="58"/>
-      <c r="G233" s="128"/>
-      <c r="H233" s="128"/>
+      <c r="B233" s="56"/>
+      <c r="C233" s="56"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="122"/>
+      <c r="H233" s="122"/>
       <c r="I233" s="25"/>
-      <c r="L233" s="117" t="str">
+      <c r="L233" s="112" t="str">
         <f>"Mechanical Services" &amp; " Total"</f>
         <v>Mechanical Services Total</v>
       </c>
-      <c r="M233" s="77"/>
-      <c r="N233" s="77"/>
-      <c r="O233" s="114">
+      <c r="M233" s="72"/>
+      <c r="N233" s="72"/>
+      <c r="O233" s="109">
         <f>SUM(O227:O228)</f>
         <v>90000</v>
       </c>
-      <c r="P233" s="114">
+      <c r="P233" s="109">
         <f>SUM(P227:P228)</f>
         <v>99000.000000000015</v>
       </c>
@@ -6740,44 +6767,44 @@
       <c r="F234" s="47"/>
       <c r="G234" s="47"/>
       <c r="H234" s="48"/>
-      <c r="L234" s="58"/>
-      <c r="M234" s="58"/>
-      <c r="N234" s="58"/>
-      <c r="O234" s="129"/>
-      <c r="P234" s="129"/>
+      <c r="L234" s="56"/>
+      <c r="M234" s="56"/>
+      <c r="N234" s="56"/>
+      <c r="O234" s="123"/>
+      <c r="P234" s="123"/>
     </row>
     <row r="235" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="136" t="s">
+      <c r="B235" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C235" s="136"/>
-      <c r="D235" s="136"/>
-      <c r="E235" s="136"/>
-      <c r="F235" s="136"/>
-      <c r="G235" s="136"/>
-      <c r="H235" s="136"/>
-      <c r="I235" s="136"/>
-      <c r="L235" s="58"/>
-      <c r="M235" s="58"/>
-      <c r="N235" s="58"/>
-      <c r="O235" s="129"/>
-      <c r="P235" s="129"/>
+      <c r="C235" s="140"/>
+      <c r="D235" s="140"/>
+      <c r="E235" s="140"/>
+      <c r="F235" s="140"/>
+      <c r="G235" s="140"/>
+      <c r="H235" s="140"/>
+      <c r="I235" s="140"/>
+      <c r="L235" s="56"/>
+      <c r="M235" s="56"/>
+      <c r="N235" s="56"/>
+      <c r="O235" s="123"/>
+      <c r="P235" s="123"/>
     </row>
     <row r="236" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="46"/>
-      <c r="B236" s="136"/>
-      <c r="C236" s="136"/>
-      <c r="D236" s="136"/>
-      <c r="E236" s="136"/>
-      <c r="F236" s="136"/>
-      <c r="G236" s="136"/>
-      <c r="H236" s="136"/>
-      <c r="I236" s="136"/>
-      <c r="L236" s="58"/>
-      <c r="M236" s="58"/>
-      <c r="N236" s="58"/>
-      <c r="O236" s="129"/>
-      <c r="P236" s="129"/>
+      <c r="B236" s="140"/>
+      <c r="C236" s="140"/>
+      <c r="D236" s="140"/>
+      <c r="E236" s="140"/>
+      <c r="F236" s="140"/>
+      <c r="G236" s="140"/>
+      <c r="H236" s="140"/>
+      <c r="I236" s="140"/>
+      <c r="L236" s="56"/>
+      <c r="M236" s="56"/>
+      <c r="N236" s="56"/>
+      <c r="O236" s="123"/>
+      <c r="P236" s="123"/>
     </row>
     <row r="237" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="46"/>
@@ -6793,14 +6820,14 @@
       <c r="F237" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="G237" s="70"/>
-      <c r="H237" s="70"/>
-      <c r="I237" s="70"/>
-      <c r="L237" s="58"/>
-      <c r="M237" s="58"/>
-      <c r="N237" s="58"/>
-      <c r="O237" s="129"/>
-      <c r="P237" s="129"/>
+      <c r="G237" s="65"/>
+      <c r="H237" s="65"/>
+      <c r="I237" s="65"/>
+      <c r="L237" s="56"/>
+      <c r="M237" s="56"/>
+      <c r="N237" s="56"/>
+      <c r="O237" s="123"/>
+      <c r="P237" s="123"/>
     </row>
     <row r="238" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
@@ -6816,11 +6843,11 @@
         <v>147</v>
       </c>
       <c r="H238" s="49"/>
-      <c r="L238" s="58"/>
-      <c r="M238" s="58"/>
-      <c r="N238" s="58"/>
-      <c r="O238" s="129"/>
-      <c r="P238" s="129"/>
+      <c r="L238" s="56"/>
+      <c r="M238" s="56"/>
+      <c r="N238" s="56"/>
+      <c r="O238" s="123"/>
+      <c r="P238" s="123"/>
     </row>
     <row r="239" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
@@ -6836,11 +6863,11 @@
         <v>147</v>
       </c>
       <c r="H239" s="49"/>
-      <c r="L239" s="58"/>
-      <c r="M239" s="58"/>
-      <c r="N239" s="58"/>
-      <c r="O239" s="129"/>
-      <c r="P239" s="129"/>
+      <c r="L239" s="56"/>
+      <c r="M239" s="56"/>
+      <c r="N239" s="56"/>
+      <c r="O239" s="123"/>
+      <c r="P239" s="123"/>
     </row>
     <row r="240" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
@@ -6856,21 +6883,21 @@
         <v>223</v>
       </c>
       <c r="H240" s="49"/>
-      <c r="L240" s="58"/>
-      <c r="M240" s="58"/>
-      <c r="N240" s="58"/>
-      <c r="O240" s="129"/>
-      <c r="P240" s="129"/>
+      <c r="L240" s="56"/>
+      <c r="M240" s="56"/>
+      <c r="N240" s="56"/>
+      <c r="O240" s="123"/>
+      <c r="P240" s="123"/>
     </row>
     <row r="241" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E241" s="50"/>
       <c r="F241" s="50"/>
       <c r="H241" s="49"/>
-      <c r="L241" s="58"/>
-      <c r="M241" s="58"/>
-      <c r="N241" s="58"/>
-      <c r="O241" s="129"/>
-      <c r="P241" s="129"/>
+      <c r="L241" s="56"/>
+      <c r="M241" s="56"/>
+      <c r="N241" s="56"/>
+      <c r="O241" s="123"/>
+      <c r="P241" s="123"/>
     </row>
     <row r="242" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="46" t="s">
@@ -6882,59 +6909,59 @@
       <c r="E242" s="50"/>
       <c r="F242" s="50"/>
       <c r="H242" s="49"/>
-      <c r="L242" s="58"/>
-      <c r="M242" s="58"/>
-      <c r="N242" s="58"/>
-      <c r="O242" s="129"/>
-      <c r="P242" s="129"/>
+      <c r="L242" s="56"/>
+      <c r="M242" s="56"/>
+      <c r="N242" s="56"/>
+      <c r="O242" s="123"/>
+      <c r="P242" s="123"/>
     </row>
     <row r="243" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C243" s="72"/>
-      <c r="D243" s="72"/>
-      <c r="E243" s="72"/>
-      <c r="F243" s="71"/>
-      <c r="G243" s="71"/>
+      <c r="C243" s="67"/>
+      <c r="D243" s="67"/>
+      <c r="E243" s="67"/>
+      <c r="F243" s="66"/>
+      <c r="G243" s="66"/>
       <c r="H243" s="48"/>
-      <c r="L243" s="58"/>
-      <c r="M243" s="58"/>
-      <c r="N243" s="58"/>
-      <c r="O243" s="129"/>
-      <c r="P243" s="129"/>
+      <c r="L243" s="56"/>
+      <c r="M243" s="56"/>
+      <c r="N243" s="56"/>
+      <c r="O243" s="123"/>
+      <c r="P243" s="123"/>
     </row>
     <row r="244" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>272</v>
       </c>
-      <c r="C244" s="72"/>
-      <c r="D244" s="72"/>
-      <c r="E244" s="72"/>
-      <c r="F244" s="71"/>
-      <c r="G244" s="71"/>
+      <c r="C244" s="67"/>
+      <c r="D244" s="67"/>
+      <c r="E244" s="67"/>
+      <c r="F244" s="66"/>
+      <c r="G244" s="66"/>
       <c r="H244" s="48"/>
-      <c r="L244" s="58"/>
-      <c r="M244" s="58"/>
-      <c r="N244" s="58"/>
-      <c r="O244" s="129"/>
-      <c r="P244" s="129"/>
+      <c r="L244" s="56"/>
+      <c r="M244" s="56"/>
+      <c r="N244" s="56"/>
+      <c r="O244" s="123"/>
+      <c r="P244" s="123"/>
     </row>
     <row r="245" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E245" s="50"/>
       <c r="F245" s="50"/>
       <c r="H245" s="49"/>
-      <c r="L245" s="58"/>
-      <c r="M245" s="58"/>
-      <c r="N245" s="58"/>
-      <c r="O245" s="129"/>
-      <c r="P245" s="129"/>
+      <c r="L245" s="56"/>
+      <c r="M245" s="56"/>
+      <c r="N245" s="56"/>
+      <c r="O245" s="123"/>
+      <c r="P245" s="123"/>
     </row>
     <row r="246" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="59" t="s">
+      <c r="A246" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="B246" s="58" t="s">
+      <c r="B246" s="56" t="s">
         <v>153</v>
       </c>
       <c r="C246" s="16"/>
@@ -6944,20 +6971,20 @@
       <c r="G246" s="16"/>
       <c r="H246" s="16"/>
       <c r="I246" s="16"/>
-      <c r="L246" s="58"/>
-      <c r="M246" s="58"/>
-      <c r="N246" s="58"/>
-      <c r="O246" s="129"/>
-      <c r="P246" s="129"/>
+      <c r="L246" s="56"/>
+      <c r="M246" s="56"/>
+      <c r="N246" s="56"/>
+      <c r="O246" s="123"/>
+      <c r="P246" s="123"/>
     </row>
     <row r="247" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="46"/>
       <c r="B247" s="11"/>
-      <c r="L247" s="58"/>
-      <c r="M247" s="58"/>
-      <c r="N247" s="58"/>
-      <c r="O247" s="129"/>
-      <c r="P247" s="129"/>
+      <c r="L247" s="56"/>
+      <c r="M247" s="56"/>
+      <c r="N247" s="56"/>
+      <c r="O247" s="123"/>
+      <c r="P247" s="123"/>
     </row>
     <row r="248" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="46"/>
@@ -6970,11 +6997,11 @@
       <c r="F248" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L248" s="58"/>
-      <c r="M248" s="58"/>
-      <c r="N248" s="58"/>
-      <c r="O248" s="129"/>
-      <c r="P248" s="129"/>
+      <c r="L248" s="56"/>
+      <c r="M248" s="56"/>
+      <c r="N248" s="56"/>
+      <c r="O248" s="123"/>
+      <c r="P248" s="123"/>
     </row>
     <row r="249" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="35" t="s">
@@ -6983,19 +7010,21 @@
       <c r="F249" t="s">
         <v>5</v>
       </c>
-      <c r="L249" s="58"/>
-      <c r="M249" s="58"/>
-      <c r="N249" s="58"/>
-      <c r="O249" s="129"/>
-      <c r="P249" s="129"/>
+      <c r="L249" s="56"/>
+      <c r="M249" s="56"/>
+      <c r="N249" s="56"/>
+      <c r="O249" s="123"/>
+      <c r="P249" s="123"/>
     </row>
     <row r="250" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="35"/>
-      <c r="L250" s="58"/>
-      <c r="M250" s="58"/>
-      <c r="N250" s="58"/>
-      <c r="O250" s="129"/>
-      <c r="P250" s="129"/>
+      <c r="B250" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L250" s="56"/>
+      <c r="M250" s="56"/>
+      <c r="N250" s="56"/>
+      <c r="O250" s="123"/>
+      <c r="P250" s="123"/>
     </row>
     <row r="251" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="35" t="s">
@@ -7004,122 +7033,122 @@
       <c r="F251" t="s">
         <v>67</v>
       </c>
-      <c r="L251" s="58"/>
-      <c r="M251" s="58"/>
-      <c r="N251" s="58"/>
-      <c r="O251" s="129"/>
-      <c r="P251" s="129"/>
+      <c r="L251" s="56"/>
+      <c r="M251" s="56"/>
+      <c r="N251" s="56"/>
+      <c r="O251" s="123"/>
+      <c r="P251" s="123"/>
     </row>
     <row r="252" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="35"/>
       <c r="F252" t="s">
         <v>65</v>
       </c>
-      <c r="L252" s="58"/>
-      <c r="M252" s="58"/>
-      <c r="N252" s="58"/>
-      <c r="O252" s="129"/>
-      <c r="P252" s="129"/>
+      <c r="L252" s="56"/>
+      <c r="M252" s="56"/>
+      <c r="N252" s="56"/>
+      <c r="O252" s="123"/>
+      <c r="P252" s="123"/>
     </row>
     <row r="253" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="35"/>
       <c r="F253" t="s">
         <v>149</v>
       </c>
-      <c r="L253" s="58"/>
-      <c r="M253" s="58"/>
-      <c r="N253" s="58"/>
-      <c r="O253" s="129"/>
-      <c r="P253" s="129"/>
+      <c r="L253" s="56"/>
+      <c r="M253" s="56"/>
+      <c r="N253" s="56"/>
+      <c r="O253" s="123"/>
+      <c r="P253" s="123"/>
     </row>
     <row r="254" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="35"/>
       <c r="F254" t="s">
         <v>150</v>
       </c>
-      <c r="L254" s="58"/>
-      <c r="M254" s="58"/>
-      <c r="N254" s="58"/>
-      <c r="O254" s="129"/>
-      <c r="P254" s="129"/>
+      <c r="L254" s="56"/>
+      <c r="M254" s="56"/>
+      <c r="N254" s="56"/>
+      <c r="O254" s="123"/>
+      <c r="P254" s="123"/>
     </row>
     <row r="255" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="35"/>
       <c r="F255" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L255" s="58"/>
-      <c r="M255" s="58"/>
-      <c r="N255" s="58"/>
-      <c r="O255" s="129"/>
-      <c r="P255" s="129"/>
+      <c r="L255" s="56"/>
+      <c r="M255" s="56"/>
+      <c r="N255" s="56"/>
+      <c r="O255" s="123"/>
+      <c r="P255" s="123"/>
     </row>
     <row r="256" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="35"/>
       <c r="F256" t="s">
         <v>148</v>
       </c>
-      <c r="L256" s="58"/>
-      <c r="M256" s="58"/>
-      <c r="N256" s="58"/>
-      <c r="O256" s="129"/>
-      <c r="P256" s="129"/>
+      <c r="L256" s="56"/>
+      <c r="M256" s="56"/>
+      <c r="N256" s="56"/>
+      <c r="O256" s="123"/>
+      <c r="P256" s="123"/>
     </row>
     <row r="257" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="L257" s="58"/>
-      <c r="M257" s="58"/>
-      <c r="N257" s="58"/>
-      <c r="O257" s="129"/>
-      <c r="P257" s="129"/>
+      <c r="L257" s="56"/>
+      <c r="M257" s="56"/>
+      <c r="N257" s="56"/>
+      <c r="O257" s="123"/>
+      <c r="P257" s="123"/>
     </row>
     <row r="258" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="33"/>
-      <c r="L258" s="58"/>
-      <c r="M258" s="58"/>
-      <c r="N258" s="58"/>
-      <c r="O258" s="129"/>
-      <c r="P258" s="129"/>
+      <c r="L258" s="56"/>
+      <c r="M258" s="56"/>
+      <c r="N258" s="56"/>
+      <c r="O258" s="123"/>
+      <c r="P258" s="123"/>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B259" s="33"/>
-      <c r="L259" s="58"/>
-      <c r="M259" s="58"/>
-      <c r="N259" s="58"/>
-      <c r="O259" s="129"/>
-      <c r="P259" s="129"/>
+      <c r="L259" s="56"/>
+      <c r="M259" s="56"/>
+      <c r="N259" s="56"/>
+      <c r="O259" s="123"/>
+      <c r="P259" s="123"/>
     </row>
     <row r="260" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="33"/>
-      <c r="L260" s="58"/>
-      <c r="M260" s="58"/>
-      <c r="N260" s="58"/>
-      <c r="O260" s="129"/>
-      <c r="P260" s="129"/>
+      <c r="L260" s="56"/>
+      <c r="M260" s="56"/>
+      <c r="N260" s="56"/>
+      <c r="O260" s="123"/>
+      <c r="P260" s="123"/>
     </row>
     <row r="261" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="33"/>
-      <c r="L261" s="58"/>
-      <c r="M261" s="58"/>
-      <c r="N261" s="58"/>
-      <c r="O261" s="129"/>
-      <c r="P261" s="129"/>
+      <c r="L261" s="56"/>
+      <c r="M261" s="56"/>
+      <c r="N261" s="56"/>
+      <c r="O261" s="123"/>
+      <c r="P261" s="123"/>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B262" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F262" s="146">
+      <c r="F262" s="150">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="G262" s="146"/>
-      <c r="P262" s="65"/>
+        <v>45357</v>
+      </c>
+      <c r="G262" s="150"/>
+      <c r="P262" s="60"/>
     </row>
     <row r="263" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="61" t="s">
+      <c r="A263" s="135" t="s">
         <v>158</v>
       </c>
       <c r="C263" s="24"/>
@@ -7128,655 +7157,650 @@
       <c r="L263" s="24"/>
     </row>
     <row r="264" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="28">
+      <c r="A264" s="136">
         <v>1</v>
       </c>
-      <c r="B264" s="145" t="s">
+      <c r="B264" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="C264" s="145"/>
-      <c r="D264" s="145"/>
-      <c r="E264" s="145"/>
-      <c r="F264" s="145"/>
-      <c r="G264" s="145"/>
-      <c r="H264" s="145"/>
-      <c r="I264" s="145"/>
+      <c r="C264" s="149"/>
+      <c r="D264" s="149"/>
+      <c r="E264" s="149"/>
+      <c r="F264" s="149"/>
+      <c r="G264" s="149"/>
+      <c r="H264" s="149"/>
+      <c r="I264" s="149"/>
     </row>
     <row r="265" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="28">
+      <c r="A265" s="136">
         <v>2</v>
       </c>
-      <c r="B265" s="145" t="s">
+      <c r="B265" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="C265" s="145"/>
-      <c r="D265" s="145"/>
-      <c r="E265" s="145"/>
-      <c r="F265" s="145"/>
-      <c r="G265" s="145"/>
-      <c r="H265" s="145"/>
-      <c r="I265" s="145"/>
+      <c r="C265" s="149"/>
+      <c r="D265" s="149"/>
+      <c r="E265" s="149"/>
+      <c r="F265" s="149"/>
+      <c r="G265" s="149"/>
+      <c r="H265" s="149"/>
+      <c r="I265" s="149"/>
     </row>
     <row r="266" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="28">
+      <c r="A266" s="136">
         <v>3</v>
       </c>
-      <c r="B266" s="145" t="s">
+      <c r="B266" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="C266" s="145"/>
-      <c r="D266" s="145"/>
-      <c r="E266" s="145"/>
-      <c r="F266" s="145"/>
-      <c r="G266" s="145"/>
-      <c r="H266" s="145"/>
-      <c r="I266" s="145"/>
+      <c r="C266" s="149"/>
+      <c r="D266" s="149"/>
+      <c r="E266" s="149"/>
+      <c r="F266" s="149"/>
+      <c r="G266" s="149"/>
+      <c r="H266" s="149"/>
+      <c r="I266" s="149"/>
     </row>
     <row r="267" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="28">
+      <c r="A267" s="136">
         <v>4</v>
       </c>
-      <c r="B267" s="145" t="s">
+      <c r="B267" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="C267" s="145"/>
-      <c r="D267" s="145"/>
-      <c r="E267" s="145"/>
-      <c r="F267" s="145"/>
-      <c r="G267" s="145"/>
-      <c r="H267" s="145"/>
-      <c r="I267" s="145"/>
+      <c r="C267" s="149"/>
+      <c r="D267" s="149"/>
+      <c r="E267" s="149"/>
+      <c r="F267" s="149"/>
+      <c r="G267" s="149"/>
+      <c r="H267" s="149"/>
+      <c r="I267" s="149"/>
     </row>
     <row r="268" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="28">
+      <c r="A268" s="136">
         <v>5</v>
       </c>
-      <c r="B268" s="145" t="s">
+      <c r="B268" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="C268" s="145"/>
-      <c r="D268" s="145"/>
-      <c r="E268" s="145"/>
-      <c r="F268" s="145"/>
-      <c r="G268" s="145"/>
-      <c r="H268" s="145"/>
-      <c r="I268" s="145"/>
+      <c r="C268" s="149"/>
+      <c r="D268" s="149"/>
+      <c r="E268" s="149"/>
+      <c r="F268" s="149"/>
+      <c r="G268" s="149"/>
+      <c r="H268" s="149"/>
+      <c r="I268" s="149"/>
     </row>
     <row r="269" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="28"/>
-      <c r="B269" s="145" t="s">
+      <c r="A269" s="136"/>
+      <c r="B269" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="C269" s="145"/>
-      <c r="D269" s="145"/>
-      <c r="E269" s="145"/>
-      <c r="F269" s="145"/>
-      <c r="G269" s="145"/>
-      <c r="H269" s="145"/>
-      <c r="I269" s="145"/>
+      <c r="C269" s="149"/>
+      <c r="D269" s="149"/>
+      <c r="E269" s="149"/>
+      <c r="F269" s="149"/>
+      <c r="G269" s="149"/>
+      <c r="H269" s="149"/>
+      <c r="I269" s="149"/>
     </row>
     <row r="270" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="28"/>
-      <c r="B270" s="145" t="s">
+      <c r="A270" s="136"/>
+      <c r="B270" s="149" t="s">
         <v>168</v>
       </c>
-      <c r="C270" s="145"/>
-      <c r="D270" s="145"/>
-      <c r="E270" s="145"/>
-      <c r="F270" s="145"/>
-      <c r="G270" s="145"/>
-      <c r="H270" s="145"/>
-      <c r="I270" s="145"/>
+      <c r="C270" s="149"/>
+      <c r="D270" s="149"/>
+      <c r="E270" s="149"/>
+      <c r="F270" s="149"/>
+      <c r="G270" s="149"/>
+      <c r="H270" s="149"/>
+      <c r="I270" s="149"/>
     </row>
     <row r="271" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="28"/>
-      <c r="B271" s="145" t="s">
+      <c r="A271" s="136"/>
+      <c r="B271" s="149" t="s">
         <v>169</v>
       </c>
-      <c r="C271" s="145"/>
-      <c r="D271" s="145"/>
-      <c r="E271" s="145"/>
-      <c r="F271" s="145"/>
-      <c r="G271" s="145"/>
-      <c r="H271" s="145"/>
-      <c r="I271" s="145"/>
+      <c r="C271" s="149"/>
+      <c r="D271" s="149"/>
+      <c r="E271" s="149"/>
+      <c r="F271" s="149"/>
+      <c r="G271" s="149"/>
+      <c r="H271" s="149"/>
+      <c r="I271" s="149"/>
     </row>
     <row r="272" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="28">
+      <c r="A272" s="136">
         <v>6</v>
       </c>
-      <c r="B272" s="145" t="s">
+      <c r="B272" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="C272" s="145"/>
-      <c r="D272" s="145"/>
-      <c r="E272" s="145"/>
-      <c r="F272" s="145"/>
-      <c r="G272" s="145"/>
-      <c r="H272" s="145"/>
-      <c r="I272" s="145"/>
+      <c r="C272" s="149"/>
+      <c r="D272" s="149"/>
+      <c r="E272" s="149"/>
+      <c r="F272" s="149"/>
+      <c r="G272" s="149"/>
+      <c r="H272" s="149"/>
+      <c r="I272" s="149"/>
     </row>
     <row r="273" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="28"/>
-      <c r="B273" s="145" t="s">
+      <c r="A273" s="136"/>
+      <c r="B273" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="C273" s="145"/>
-      <c r="D273" s="145"/>
-      <c r="E273" s="145"/>
-      <c r="F273" s="145"/>
-      <c r="G273" s="145"/>
-      <c r="H273" s="145"/>
-      <c r="I273" s="145"/>
+      <c r="C273" s="149"/>
+      <c r="D273" s="149"/>
+      <c r="E273" s="149"/>
+      <c r="F273" s="149"/>
+      <c r="G273" s="149"/>
+      <c r="H273" s="149"/>
+      <c r="I273" s="149"/>
     </row>
     <row r="274" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="28"/>
-      <c r="B274" s="145" t="s">
+      <c r="A274" s="136"/>
+      <c r="B274" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="C274" s="145"/>
-      <c r="D274" s="145"/>
-      <c r="E274" s="145"/>
-      <c r="F274" s="145"/>
-      <c r="G274" s="145"/>
-      <c r="H274" s="145"/>
-      <c r="I274" s="145"/>
+      <c r="C274" s="149"/>
+      <c r="D274" s="149"/>
+      <c r="E274" s="149"/>
+      <c r="F274" s="149"/>
+      <c r="G274" s="149"/>
+      <c r="H274" s="149"/>
+      <c r="I274" s="149"/>
     </row>
     <row r="275" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="28">
+      <c r="A275" s="136">
         <v>7</v>
       </c>
-      <c r="B275" s="145" t="s">
+      <c r="B275" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="C275" s="145"/>
-      <c r="D275" s="145"/>
-      <c r="E275" s="145"/>
-      <c r="F275" s="145"/>
-      <c r="G275" s="145"/>
-      <c r="H275" s="145"/>
-      <c r="I275" s="145"/>
+      <c r="C275" s="149"/>
+      <c r="D275" s="149"/>
+      <c r="E275" s="149"/>
+      <c r="F275" s="149"/>
+      <c r="G275" s="149"/>
+      <c r="H275" s="149"/>
+      <c r="I275" s="149"/>
     </row>
     <row r="276" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="28">
+      <c r="A276" s="136">
         <v>8</v>
       </c>
-      <c r="B276" s="145" t="s">
+      <c r="B276" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="C276" s="145"/>
-      <c r="D276" s="145"/>
-      <c r="E276" s="145"/>
-      <c r="F276" s="145"/>
-      <c r="G276" s="145"/>
-      <c r="H276" s="145"/>
-      <c r="I276" s="145"/>
+      <c r="C276" s="149"/>
+      <c r="D276" s="149"/>
+      <c r="E276" s="149"/>
+      <c r="F276" s="149"/>
+      <c r="G276" s="149"/>
+      <c r="H276" s="149"/>
+      <c r="I276" s="149"/>
     </row>
     <row r="277" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="28"/>
-      <c r="B277" s="145" t="s">
+      <c r="A277" s="136"/>
+      <c r="B277" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="C277" s="145"/>
-      <c r="D277" s="145"/>
-      <c r="E277" s="145"/>
-      <c r="F277" s="145"/>
-      <c r="G277" s="145"/>
-      <c r="H277" s="145"/>
-      <c r="I277" s="145"/>
+      <c r="C277" s="149"/>
+      <c r="D277" s="149"/>
+      <c r="E277" s="149"/>
+      <c r="F277" s="149"/>
+      <c r="G277" s="149"/>
+      <c r="H277" s="149"/>
+      <c r="I277" s="149"/>
     </row>
     <row r="278" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="28"/>
-      <c r="B278" s="145" t="s">
+      <c r="A278" s="136"/>
+      <c r="B278" s="149" t="s">
         <v>160</v>
       </c>
-      <c r="C278" s="145"/>
-      <c r="D278" s="145"/>
-      <c r="E278" s="145"/>
-      <c r="F278" s="145"/>
-      <c r="G278" s="145"/>
-      <c r="H278" s="145"/>
-      <c r="I278" s="145"/>
+      <c r="C278" s="149"/>
+      <c r="D278" s="149"/>
+      <c r="E278" s="149"/>
+      <c r="F278" s="149"/>
+      <c r="G278" s="149"/>
+      <c r="H278" s="149"/>
+      <c r="I278" s="149"/>
     </row>
     <row r="279" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="28"/>
-      <c r="B279" s="145" t="s">
+      <c r="A279" s="136"/>
+      <c r="B279" s="149" t="s">
         <v>176</v>
       </c>
-      <c r="C279" s="145"/>
-      <c r="D279" s="145"/>
-      <c r="E279" s="145"/>
-      <c r="F279" s="145"/>
-      <c r="G279" s="145"/>
-      <c r="H279" s="145"/>
-      <c r="I279" s="145"/>
+      <c r="C279" s="149"/>
+      <c r="D279" s="149"/>
+      <c r="E279" s="149"/>
+      <c r="F279" s="149"/>
+      <c r="G279" s="149"/>
+      <c r="H279" s="149"/>
+      <c r="I279" s="149"/>
     </row>
     <row r="280" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="28"/>
-      <c r="B280" s="145" t="s">
+      <c r="A280" s="136"/>
+      <c r="B280" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="C280" s="145"/>
-      <c r="D280" s="145"/>
-      <c r="E280" s="145"/>
-      <c r="F280" s="145"/>
-      <c r="G280" s="145"/>
-      <c r="H280" s="145"/>
-      <c r="I280" s="145"/>
+      <c r="C280" s="149"/>
+      <c r="D280" s="149"/>
+      <c r="E280" s="149"/>
+      <c r="F280" s="149"/>
+      <c r="G280" s="149"/>
+      <c r="H280" s="149"/>
+      <c r="I280" s="149"/>
     </row>
     <row r="281" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="28"/>
-      <c r="B281" s="145" t="s">
+      <c r="A281" s="136"/>
+      <c r="B281" s="149" t="s">
         <v>178</v>
       </c>
-      <c r="C281" s="145"/>
-      <c r="D281" s="145"/>
-      <c r="E281" s="145"/>
-      <c r="F281" s="145"/>
-      <c r="G281" s="145"/>
-      <c r="H281" s="145"/>
-      <c r="I281" s="145"/>
+      <c r="C281" s="149"/>
+      <c r="D281" s="149"/>
+      <c r="E281" s="149"/>
+      <c r="F281" s="149"/>
+      <c r="G281" s="149"/>
+      <c r="H281" s="149"/>
+      <c r="I281" s="149"/>
     </row>
     <row r="282" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="28"/>
-      <c r="B282" s="145" t="s">
+      <c r="A282" s="136"/>
+      <c r="B282" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="C282" s="145"/>
-      <c r="D282" s="145"/>
-      <c r="E282" s="145"/>
-      <c r="F282" s="145"/>
-      <c r="G282" s="145"/>
-      <c r="H282" s="145"/>
-      <c r="I282" s="145"/>
+      <c r="C282" s="149"/>
+      <c r="D282" s="149"/>
+      <c r="E282" s="149"/>
+      <c r="F282" s="149"/>
+      <c r="G282" s="149"/>
+      <c r="H282" s="149"/>
+      <c r="I282" s="149"/>
     </row>
     <row r="283" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="28">
+      <c r="A283" s="136">
         <v>9</v>
       </c>
-      <c r="B283" s="145" t="s">
+      <c r="B283" s="149" t="s">
         <v>180</v>
       </c>
-      <c r="C283" s="145"/>
-      <c r="D283" s="145"/>
-      <c r="E283" s="145"/>
-      <c r="F283" s="145"/>
-      <c r="G283" s="145"/>
-      <c r="H283" s="145"/>
-      <c r="I283" s="145"/>
+      <c r="C283" s="149"/>
+      <c r="D283" s="149"/>
+      <c r="E283" s="149"/>
+      <c r="F283" s="149"/>
+      <c r="G283" s="149"/>
+      <c r="H283" s="149"/>
+      <c r="I283" s="149"/>
     </row>
     <row r="284" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="28">
+      <c r="A284" s="136">
         <v>10</v>
       </c>
-      <c r="B284" s="145" t="s">
+      <c r="B284" s="149" t="s">
         <v>181</v>
       </c>
-      <c r="C284" s="145"/>
-      <c r="D284" s="145"/>
-      <c r="E284" s="145"/>
-      <c r="F284" s="145"/>
-      <c r="G284" s="145"/>
-      <c r="H284" s="145"/>
-      <c r="I284" s="145"/>
+      <c r="C284" s="149"/>
+      <c r="D284" s="149"/>
+      <c r="E284" s="149"/>
+      <c r="F284" s="149"/>
+      <c r="G284" s="149"/>
+      <c r="H284" s="149"/>
+      <c r="I284" s="149"/>
     </row>
     <row r="285" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="28"/>
-      <c r="B285" s="145" t="s">
+      <c r="A285" s="136"/>
+      <c r="B285" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="C285" s="145"/>
-      <c r="D285" s="145"/>
-      <c r="E285" s="145"/>
-      <c r="F285" s="145"/>
-      <c r="G285" s="145"/>
-      <c r="H285" s="145"/>
-      <c r="I285" s="145"/>
+      <c r="C285" s="149"/>
+      <c r="D285" s="149"/>
+      <c r="E285" s="149"/>
+      <c r="F285" s="149"/>
+      <c r="G285" s="149"/>
+      <c r="H285" s="149"/>
+      <c r="I285" s="149"/>
     </row>
     <row r="286" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="28"/>
-      <c r="B286" s="145" t="s">
+      <c r="A286" s="136"/>
+      <c r="B286" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="C286" s="145"/>
-      <c r="D286" s="145"/>
-      <c r="E286" s="145"/>
-      <c r="F286" s="145"/>
-      <c r="G286" s="145"/>
-      <c r="H286" s="145"/>
-      <c r="I286" s="145"/>
+      <c r="C286" s="149"/>
+      <c r="D286" s="149"/>
+      <c r="E286" s="149"/>
+      <c r="F286" s="149"/>
+      <c r="G286" s="149"/>
+      <c r="H286" s="149"/>
+      <c r="I286" s="149"/>
     </row>
     <row r="287" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="28"/>
-      <c r="B287" s="145" t="s">
+      <c r="A287" s="136"/>
+      <c r="B287" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="C287" s="145"/>
-      <c r="D287" s="145"/>
-      <c r="E287" s="145"/>
-      <c r="F287" s="145"/>
-      <c r="G287" s="145"/>
-      <c r="H287" s="145"/>
-      <c r="I287" s="145"/>
+      <c r="C287" s="149"/>
+      <c r="D287" s="149"/>
+      <c r="E287" s="149"/>
+      <c r="F287" s="149"/>
+      <c r="G287" s="149"/>
+      <c r="H287" s="149"/>
+      <c r="I287" s="149"/>
     </row>
     <row r="288" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="28"/>
-      <c r="B288" s="145" t="s">
+      <c r="A288" s="136"/>
+      <c r="B288" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="C288" s="145"/>
-      <c r="D288" s="145"/>
-      <c r="E288" s="145"/>
-      <c r="F288" s="145"/>
-      <c r="G288" s="145"/>
-      <c r="H288" s="145"/>
-      <c r="I288" s="145"/>
+      <c r="C288" s="149"/>
+      <c r="D288" s="149"/>
+      <c r="E288" s="149"/>
+      <c r="F288" s="149"/>
+      <c r="G288" s="149"/>
+      <c r="H288" s="149"/>
+      <c r="I288" s="149"/>
     </row>
     <row r="289" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="28">
+      <c r="A289" s="136">
         <v>11</v>
       </c>
-      <c r="B289" s="145" t="s">
+      <c r="B289" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="C289" s="145"/>
-      <c r="D289" s="145"/>
-      <c r="E289" s="145"/>
-      <c r="F289" s="145"/>
-      <c r="G289" s="145"/>
-      <c r="H289" s="145"/>
-      <c r="I289" s="145"/>
+      <c r="C289" s="149"/>
+      <c r="D289" s="149"/>
+      <c r="E289" s="149"/>
+      <c r="F289" s="149"/>
+      <c r="G289" s="149"/>
+      <c r="H289" s="149"/>
+      <c r="I289" s="149"/>
     </row>
     <row r="290" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="28"/>
-      <c r="B290" s="145" t="s">
+      <c r="A290" s="136"/>
+      <c r="B290" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="C290" s="145"/>
-      <c r="D290" s="145"/>
-      <c r="E290" s="145"/>
-      <c r="F290" s="145"/>
-      <c r="G290" s="145"/>
-      <c r="H290" s="145"/>
-      <c r="I290" s="145"/>
+      <c r="C290" s="149"/>
+      <c r="D290" s="149"/>
+      <c r="E290" s="149"/>
+      <c r="F290" s="149"/>
+      <c r="G290" s="149"/>
+      <c r="H290" s="149"/>
+      <c r="I290" s="149"/>
     </row>
     <row r="291" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="28"/>
-      <c r="B291" s="52"/>
-      <c r="C291" s="52"/>
-      <c r="D291" s="52"/>
-      <c r="E291" s="52"/>
-      <c r="F291" s="52"/>
-      <c r="G291" s="52"/>
-      <c r="H291" s="52"/>
-      <c r="I291" s="52"/>
-      <c r="K291" s="52"/>
-      <c r="L291" s="52"/>
-      <c r="M291" s="52"/>
-      <c r="N291" s="52"/>
-      <c r="O291" s="52"/>
-      <c r="P291" s="52"/>
+      <c r="A291" s="136"/>
+      <c r="B291" s="51"/>
+      <c r="C291" s="51"/>
+      <c r="D291" s="51"/>
+      <c r="E291" s="51"/>
+      <c r="F291" s="51"/>
+      <c r="G291" s="51"/>
+      <c r="H291" s="51"/>
+      <c r="I291" s="51"/>
+      <c r="K291" s="51"/>
+      <c r="L291" s="51"/>
+      <c r="M291" s="51"/>
+      <c r="N291" s="51"/>
+      <c r="O291" s="51"/>
+      <c r="P291" s="51"/>
     </row>
     <row r="292" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="28"/>
-      <c r="B292" s="145" t="s">
+      <c r="A292" s="136"/>
+      <c r="B292" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="C292" s="145"/>
-      <c r="D292" s="145"/>
-      <c r="E292" s="145"/>
-      <c r="F292" s="145"/>
-      <c r="G292" s="145"/>
-      <c r="H292" s="145"/>
-      <c r="I292" s="145"/>
+      <c r="C292" s="149"/>
+      <c r="D292" s="149"/>
+      <c r="E292" s="149"/>
+      <c r="F292" s="149"/>
+      <c r="G292" s="149"/>
+      <c r="H292" s="149"/>
+      <c r="I292" s="149"/>
     </row>
     <row r="293" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="28">
+      <c r="A293" s="136">
         <v>12</v>
       </c>
-      <c r="B293" s="145" t="s">
+      <c r="B293" s="149" t="s">
         <v>188</v>
       </c>
-      <c r="C293" s="145"/>
-      <c r="D293" s="145"/>
-      <c r="E293" s="145"/>
-      <c r="F293" s="145"/>
-      <c r="G293" s="145"/>
-      <c r="H293" s="145"/>
-      <c r="I293" s="145"/>
+      <c r="C293" s="149"/>
+      <c r="D293" s="149"/>
+      <c r="E293" s="149"/>
+      <c r="F293" s="149"/>
+      <c r="G293" s="149"/>
+      <c r="H293" s="149"/>
+      <c r="I293" s="149"/>
     </row>
     <row r="294" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="28"/>
-      <c r="B294" s="145" t="s">
+      <c r="A294" s="136"/>
+      <c r="B294" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="C294" s="145"/>
-      <c r="D294" s="145"/>
-      <c r="E294" s="145"/>
-      <c r="F294" s="145"/>
-      <c r="G294" s="145"/>
-      <c r="H294" s="145"/>
-      <c r="I294" s="145"/>
+      <c r="C294" s="149"/>
+      <c r="D294" s="149"/>
+      <c r="E294" s="149"/>
+      <c r="F294" s="149"/>
+      <c r="G294" s="149"/>
+      <c r="H294" s="149"/>
+      <c r="I294" s="149"/>
     </row>
     <row r="295" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="28"/>
-      <c r="B295" s="145" t="s">
+      <c r="A295" s="136"/>
+      <c r="B295" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="C295" s="145"/>
-      <c r="D295" s="145"/>
-      <c r="E295" s="145"/>
-      <c r="F295" s="145"/>
-      <c r="G295" s="145"/>
-      <c r="H295" s="145"/>
-      <c r="I295" s="145"/>
+      <c r="C295" s="149"/>
+      <c r="D295" s="149"/>
+      <c r="E295" s="149"/>
+      <c r="F295" s="149"/>
+      <c r="G295" s="149"/>
+      <c r="H295" s="149"/>
+      <c r="I295" s="149"/>
     </row>
     <row r="296" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="28"/>
-      <c r="B296" s="145" t="s">
+      <c r="A296" s="136"/>
+      <c r="B296" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="C296" s="145"/>
-      <c r="D296" s="145"/>
-      <c r="E296" s="145"/>
-      <c r="F296" s="145"/>
-      <c r="G296" s="145"/>
-      <c r="H296" s="145"/>
-      <c r="I296" s="145"/>
+      <c r="C296" s="149"/>
+      <c r="D296" s="149"/>
+      <c r="E296" s="149"/>
+      <c r="F296" s="149"/>
+      <c r="G296" s="149"/>
+      <c r="H296" s="149"/>
+      <c r="I296" s="149"/>
     </row>
     <row r="297" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="28"/>
-      <c r="B297" s="145" t="s">
+      <c r="A297" s="136"/>
+      <c r="B297" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="C297" s="145"/>
-      <c r="D297" s="145"/>
-      <c r="E297" s="145"/>
-      <c r="F297" s="145"/>
-      <c r="G297" s="145"/>
-      <c r="H297" s="145"/>
-      <c r="I297" s="145"/>
+      <c r="C297" s="149"/>
+      <c r="D297" s="149"/>
+      <c r="E297" s="149"/>
+      <c r="F297" s="149"/>
+      <c r="G297" s="149"/>
+      <c r="H297" s="149"/>
+      <c r="I297" s="149"/>
     </row>
     <row r="298" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="28">
+      <c r="A298" s="136">
         <v>13</v>
       </c>
-      <c r="B298" s="145" t="s">
+      <c r="B298" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="C298" s="145"/>
-      <c r="D298" s="145"/>
-      <c r="E298" s="145"/>
-      <c r="F298" s="145"/>
-      <c r="G298" s="145"/>
-      <c r="H298" s="145"/>
-      <c r="I298" s="145"/>
+      <c r="C298" s="149"/>
+      <c r="D298" s="149"/>
+      <c r="E298" s="149"/>
+      <c r="F298" s="149"/>
+      <c r="G298" s="149"/>
+      <c r="H298" s="149"/>
+      <c r="I298" s="149"/>
     </row>
     <row r="299" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="28"/>
-      <c r="B299" s="145" t="s">
+      <c r="A299" s="136"/>
+      <c r="B299" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="C299" s="145"/>
-      <c r="D299" s="145"/>
-      <c r="E299" s="145"/>
-      <c r="F299" s="145"/>
-      <c r="G299" s="145"/>
-      <c r="H299" s="145"/>
-      <c r="I299" s="145"/>
+      <c r="C299" s="149"/>
+      <c r="D299" s="149"/>
+      <c r="E299" s="149"/>
+      <c r="F299" s="149"/>
+      <c r="G299" s="149"/>
+      <c r="H299" s="149"/>
+      <c r="I299" s="149"/>
     </row>
     <row r="300" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="28"/>
-      <c r="B300" s="145" t="s">
+      <c r="A300" s="136"/>
+      <c r="B300" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="C300" s="145"/>
-      <c r="D300" s="145"/>
-      <c r="E300" s="145"/>
-      <c r="F300" s="145"/>
-      <c r="G300" s="145"/>
-      <c r="H300" s="145"/>
-      <c r="I300" s="145"/>
+      <c r="C300" s="149"/>
+      <c r="D300" s="149"/>
+      <c r="E300" s="149"/>
+      <c r="F300" s="149"/>
+      <c r="G300" s="149"/>
+      <c r="H300" s="149"/>
+      <c r="I300" s="149"/>
     </row>
     <row r="301" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="28">
+      <c r="A301" s="136">
         <v>14</v>
       </c>
-      <c r="B301" s="145" t="s">
+      <c r="B301" s="149" t="s">
         <v>195</v>
       </c>
-      <c r="C301" s="145"/>
-      <c r="D301" s="145"/>
-      <c r="E301" s="145"/>
-      <c r="F301" s="145"/>
-      <c r="G301" s="145"/>
-      <c r="H301" s="145"/>
-      <c r="I301" s="145"/>
+      <c r="C301" s="149"/>
+      <c r="D301" s="149"/>
+      <c r="E301" s="149"/>
+      <c r="F301" s="149"/>
+      <c r="G301" s="149"/>
+      <c r="H301" s="149"/>
+      <c r="I301" s="149"/>
     </row>
     <row r="302" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="28"/>
-      <c r="B302" s="145" t="s">
+      <c r="A302" s="136"/>
+      <c r="B302" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="C302" s="145"/>
-      <c r="D302" s="145"/>
-      <c r="E302" s="145"/>
-      <c r="F302" s="145"/>
-      <c r="G302" s="145"/>
-      <c r="H302" s="145"/>
-      <c r="I302" s="145"/>
+      <c r="C302" s="149"/>
+      <c r="D302" s="149"/>
+      <c r="E302" s="149"/>
+      <c r="F302" s="149"/>
+      <c r="G302" s="149"/>
+      <c r="H302" s="149"/>
+      <c r="I302" s="149"/>
     </row>
     <row r="303" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="28"/>
-      <c r="B303" s="145" t="s">
+      <c r="A303" s="136"/>
+      <c r="B303" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="C303" s="145"/>
-      <c r="D303" s="145"/>
-      <c r="E303" s="145"/>
-      <c r="F303" s="145"/>
-      <c r="G303" s="145"/>
-      <c r="H303" s="145"/>
-      <c r="I303" s="145"/>
+      <c r="C303" s="149"/>
+      <c r="D303" s="149"/>
+      <c r="E303" s="149"/>
+      <c r="F303" s="149"/>
+      <c r="G303" s="149"/>
+      <c r="H303" s="149"/>
+      <c r="I303" s="149"/>
     </row>
     <row r="304" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="28"/>
-      <c r="B304" s="145" t="s">
+      <c r="A304" s="136"/>
+      <c r="B304" s="149" t="s">
         <v>197</v>
       </c>
-      <c r="C304" s="145"/>
-      <c r="D304" s="145"/>
-      <c r="E304" s="145"/>
-      <c r="F304" s="145"/>
-      <c r="G304" s="145"/>
-      <c r="H304" s="145"/>
-      <c r="I304" s="145"/>
+      <c r="C304" s="149"/>
+      <c r="D304" s="149"/>
+      <c r="E304" s="149"/>
+      <c r="F304" s="149"/>
+      <c r="G304" s="149"/>
+      <c r="H304" s="149"/>
+      <c r="I304" s="149"/>
     </row>
     <row r="305" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="28"/>
-      <c r="B305" s="145" t="s">
+      <c r="A305" s="136"/>
+      <c r="B305" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="C305" s="145"/>
-      <c r="D305" s="145"/>
-      <c r="E305" s="145"/>
-      <c r="F305" s="145"/>
-      <c r="G305" s="145"/>
-      <c r="H305" s="145"/>
-      <c r="I305" s="145"/>
+      <c r="C305" s="149"/>
+      <c r="D305" s="149"/>
+      <c r="E305" s="149"/>
+      <c r="F305" s="149"/>
+      <c r="G305" s="149"/>
+      <c r="H305" s="149"/>
+      <c r="I305" s="149"/>
     </row>
     <row r="306" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="28">
+      <c r="A306" s="136">
         <v>15</v>
       </c>
-      <c r="B306" s="145" t="s">
+      <c r="B306" s="149" t="s">
         <v>199</v>
       </c>
-      <c r="C306" s="145"/>
-      <c r="D306" s="145"/>
-      <c r="E306" s="145"/>
-      <c r="F306" s="145"/>
-      <c r="G306" s="145"/>
-      <c r="H306" s="145"/>
-      <c r="I306" s="145"/>
+      <c r="C306" s="149"/>
+      <c r="D306" s="149"/>
+      <c r="E306" s="149"/>
+      <c r="F306" s="149"/>
+      <c r="G306" s="149"/>
+      <c r="H306" s="149"/>
+      <c r="I306" s="149"/>
     </row>
     <row r="307" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="28">
+      <c r="A307" s="136">
         <v>16</v>
       </c>
-      <c r="B307" s="145" t="s">
+      <c r="B307" s="149" t="s">
         <v>200</v>
       </c>
-      <c r="C307" s="145"/>
-      <c r="D307" s="145"/>
-      <c r="E307" s="145"/>
-      <c r="F307" s="145"/>
-      <c r="G307" s="145"/>
-      <c r="H307" s="145"/>
-      <c r="I307" s="145"/>
+      <c r="C307" s="149"/>
+      <c r="D307" s="149"/>
+      <c r="E307" s="149"/>
+      <c r="F307" s="149"/>
+      <c r="G307" s="149"/>
+      <c r="H307" s="149"/>
+      <c r="I307" s="149"/>
     </row>
     <row r="308" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="28">
+      <c r="A308" s="136">
         <v>17</v>
       </c>
-      <c r="B308" s="145" t="s">
+      <c r="B308" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="C308" s="145"/>
-      <c r="D308" s="145"/>
-      <c r="E308" s="145"/>
-      <c r="F308" s="145"/>
-      <c r="G308" s="145"/>
-      <c r="H308" s="145"/>
-      <c r="I308" s="145"/>
+      <c r="C308" s="149"/>
+      <c r="D308" s="149"/>
+      <c r="E308" s="149"/>
+      <c r="F308" s="149"/>
+      <c r="G308" s="149"/>
+      <c r="H308" s="149"/>
+      <c r="I308" s="149"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" s="51"/>
+      <c r="A309" s="137"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A310" s="51"/>
+      <c r="A310" s="137"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A311" s="51"/>
+      <c r="A311" s="137"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A312" s="51"/>
+      <c r="A312" s="137"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" s="51"/>
+      <c r="A313" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="B27:H29"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D214:E214"/>
     <mergeCell ref="B211:I211"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B179:I182"/>
-    <mergeCell ref="A61:I62"/>
-    <mergeCell ref="A68:I69"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F38:I38"/>
@@ -7792,6 +7816,7 @@
     <mergeCell ref="H226:H227"/>
     <mergeCell ref="D226:G227"/>
     <mergeCell ref="D228:G228"/>
+    <mergeCell ref="B228:C228"/>
     <mergeCell ref="B266:I266"/>
     <mergeCell ref="B235:I236"/>
     <mergeCell ref="F262:G262"/>
@@ -7864,6 +7889,10 @@
     <mergeCell ref="D213:E213"/>
     <mergeCell ref="B193:I193"/>
     <mergeCell ref="B185:I186"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B179:I182"/>
+    <mergeCell ref="A61:I62"/>
+    <mergeCell ref="A68:I69"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -7943,21 +7972,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7973,24 +8002,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8013,46 +8042,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="169" t="s">
+      <c r="F15" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="F16" s="173" t="s">
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="F16" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -8066,43 +8095,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="172" t="s">
+      <c r="A20" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="171" t="s">
+      <c r="A21" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -8121,17 +8150,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8142,257 +8171,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="165" t="s">
+      <c r="B28" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165" t="s">
+      <c r="C28" s="166"/>
+      <c r="D28" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="175"/>
-      <c r="D30" s="166" t="s">
+      <c r="C30" s="176"/>
+      <c r="D30" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="168"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="175" t="s">
+      <c r="B33" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="166" t="s">
+      <c r="C33" s="176"/>
+      <c r="D33" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="168"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="168"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="175" t="s">
+      <c r="B36" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="175"/>
-      <c r="D36" s="166" t="s">
+      <c r="C36" s="176"/>
+      <c r="D36" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
+      <c r="B37" s="176"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="168"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="175"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
+      <c r="B38" s="176"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="168"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="175" t="s">
+      <c r="B39" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="175"/>
-      <c r="D39" s="166" t="s">
+      <c r="C39" s="176"/>
+      <c r="D39" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="175"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
+      <c r="B40" s="176"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="168"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="177"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="177"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="178" t="s">
+      <c r="B47" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="179"/>
-      <c r="D47" s="178" t="s">
+      <c r="C47" s="180"/>
+      <c r="D47" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
+      <c r="H47" s="184"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="180"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="186"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="187"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="192" t="s">
+      <c r="B49" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="193"/>
-      <c r="D49" s="196" t="s">
+      <c r="C49" s="194"/>
+      <c r="D49" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="197"/>
-      <c r="F49" s="197"/>
-      <c r="G49" s="197"/>
-      <c r="H49" s="198"/>
+      <c r="E49" s="198"/>
+      <c r="F49" s="198"/>
+      <c r="G49" s="198"/>
+      <c r="H49" s="199"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="194"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="199"/>
-      <c r="E50" s="200"/>
-      <c r="F50" s="200"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="201"/>
+      <c r="B50" s="195"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="201"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="202"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="192" t="s">
+      <c r="B51" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="193"/>
-      <c r="D51" s="202" t="s">
+      <c r="C51" s="194"/>
+      <c r="D51" s="203" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="203"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="203"/>
-      <c r="H51" s="204"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="204"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="205"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="211"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="205"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="206"/>
-      <c r="G52" s="206"/>
-      <c r="H52" s="207"/>
+      <c r="B52" s="212"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="206"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="208"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="194"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="209"/>
-      <c r="G53" s="209"/>
-      <c r="H53" s="210"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="196"/>
+      <c r="D53" s="209"/>
+      <c r="E53" s="210"/>
+      <c r="F53" s="210"/>
+      <c r="G53" s="210"/>
+      <c r="H53" s="211"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="190" t="s">
+      <c r="B54" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="191"/>
-      <c r="D54" s="187" t="s">
+      <c r="C54" s="192"/>
+      <c r="D54" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="188"/>
-      <c r="F54" s="188"/>
-      <c r="G54" s="188"/>
-      <c r="H54" s="189"/>
+      <c r="E54" s="189"/>
+      <c r="F54" s="189"/>
+      <c r="G54" s="189"/>
+      <c r="H54" s="190"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -8430,87 +8459,87 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="165" t="s">
+      <c r="B61" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165" t="s">
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
+      <c r="E61" s="166"/>
+      <c r="F61" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
+      <c r="G61" s="166"/>
+      <c r="H61" s="166"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="166"/>
+      <c r="E62" s="166"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="166"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="175" t="s">
+      <c r="B63" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="175"/>
-      <c r="D63" s="175"/>
-      <c r="E63" s="175"/>
-      <c r="F63" s="175" t="s">
+      <c r="C63" s="176"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="176"/>
+      <c r="F63" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="175"/>
-      <c r="H63" s="175"/>
+      <c r="G63" s="176"/>
+      <c r="H63" s="176"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="175"/>
-      <c r="C64" s="175"/>
-      <c r="D64" s="175"/>
-      <c r="E64" s="175"/>
-      <c r="F64" s="175"/>
-      <c r="G64" s="175"/>
-      <c r="H64" s="175"/>
+      <c r="B64" s="176"/>
+      <c r="C64" s="176"/>
+      <c r="D64" s="176"/>
+      <c r="E64" s="176"/>
+      <c r="F64" s="176"/>
+      <c r="G64" s="176"/>
+      <c r="H64" s="176"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="175" t="s">
+      <c r="B65" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="175"/>
-      <c r="D65" s="175"/>
-      <c r="E65" s="175"/>
-      <c r="F65" s="175" t="s">
+      <c r="C65" s="176"/>
+      <c r="D65" s="176"/>
+      <c r="E65" s="176"/>
+      <c r="F65" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="175"/>
-      <c r="H65" s="175"/>
+      <c r="G65" s="176"/>
+      <c r="H65" s="176"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="175"/>
-      <c r="C66" s="175"/>
-      <c r="D66" s="175"/>
-      <c r="E66" s="175"/>
-      <c r="F66" s="175"/>
-      <c r="G66" s="175"/>
-      <c r="H66" s="175"/>
+      <c r="B66" s="176"/>
+      <c r="C66" s="176"/>
+      <c r="D66" s="176"/>
+      <c r="E66" s="176"/>
+      <c r="F66" s="176"/>
+      <c r="G66" s="176"/>
+      <c r="H66" s="176"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="176" t="s">
+      <c r="A73" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="176"/>
-      <c r="C73" s="176"/>
+      <c r="B73" s="177"/>
+      <c r="C73" s="177"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="177"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="177"/>
+      <c r="A74" s="178"/>
+      <c r="B74" s="178"/>
+      <c r="C74" s="178"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="177"/>
-      <c r="B75" s="177"/>
-      <c r="C75" s="177"/>
+      <c r="A75" s="178"/>
+      <c r="B75" s="178"/>
+      <c r="C75" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -8668,39 +8697,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="220" t="s">
+      <c r="D13" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="220"/>
+      <c r="E13" s="221"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="236" t="s">
+      <c r="G13" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="236"/>
-      <c r="I13" s="236"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="237"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="237" t="s">
+      <c r="D14" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="237"/>
-      <c r="G14" s="238" t="s">
+      <c r="E14" s="238"/>
+      <c r="G14" s="239" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="238"/>
-      <c r="I14" s="238"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="239"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="236" t="s">
+      <c r="D15" s="237" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="236"/>
-      <c r="F15" s="236"/>
-      <c r="G15" s="236"/>
-      <c r="H15" s="236"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="237"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="237"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -8710,265 +8739,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="240" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="240"/>
+      <c r="I18" s="240"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="240"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="241"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="240" t="s">
+      <c r="B20" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
-      <c r="E20" s="240"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="240"/>
-      <c r="I20" s="240"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="241"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="233" t="s">
+      <c r="D26" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="235"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="236"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="222" t="s">
+      <c r="C27" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="224" t="s">
+      <c r="D27" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="225"/>
-      <c r="F27" s="225"/>
-      <c r="G27" s="225"/>
-      <c r="H27" s="225"/>
-      <c r="I27" s="226"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="226"/>
+      <c r="I27" s="227"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="230"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="232"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="233"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="223"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="228"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="229"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="230"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="222" t="s">
+      <c r="C30" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="224" t="s">
+      <c r="D30" s="225" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="225"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="225"/>
-      <c r="H30" s="225"/>
-      <c r="I30" s="226"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="227"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="230"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="232"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="233"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="223"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="228"/>
-      <c r="I32" s="229"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="230"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="222" t="s">
+      <c r="C33" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="224" t="s">
+      <c r="D33" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
-      <c r="G33" s="225"/>
-      <c r="H33" s="225"/>
-      <c r="I33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="226"/>
+      <c r="I33" s="227"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="230"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="232"/>
+      <c r="C34" s="231"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="233"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="223"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
-      <c r="G35" s="228"/>
-      <c r="H35" s="228"/>
-      <c r="I35" s="229"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="230"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="222" t="s">
+      <c r="C36" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="224" t="s">
+      <c r="D36" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="225"/>
-      <c r="H36" s="225"/>
-      <c r="I36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="226"/>
+      <c r="I36" s="227"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="230"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="232"/>
+      <c r="C37" s="231"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="233"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="223"/>
-      <c r="D38" s="227"/>
-      <c r="E38" s="228"/>
-      <c r="F38" s="228"/>
-      <c r="G38" s="228"/>
-      <c r="H38" s="228"/>
-      <c r="I38" s="229"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
+      <c r="G38" s="229"/>
+      <c r="H38" s="229"/>
+      <c r="I38" s="230"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="143" t="s">
+      <c r="L39" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="143"/>
-      <c r="S39" s="143"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="147"/>
+      <c r="Q39" s="147"/>
+      <c r="R39" s="147"/>
+      <c r="S39" s="147"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="143" t="s">
+      <c r="L42" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="143"/>
-      <c r="N42" s="143"/>
-      <c r="O42" s="143"/>
-      <c r="P42" s="143"/>
-      <c r="Q42" s="143"/>
-      <c r="R42" s="143"/>
-      <c r="S42" s="143"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147"/>
+      <c r="R42" s="147"/>
+      <c r="S42" s="147"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9009,157 +9038,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="136" t="s">
+      <c r="C56" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="233" t="s">
+      <c r="D58" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="234"/>
-      <c r="F58" s="234"/>
-      <c r="G58" s="234"/>
-      <c r="H58" s="234"/>
-      <c r="I58" s="235"/>
+      <c r="E58" s="235"/>
+      <c r="F58" s="235"/>
+      <c r="G58" s="235"/>
+      <c r="H58" s="235"/>
+      <c r="I58" s="236"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="222" t="s">
+      <c r="C59" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="224" t="s">
+      <c r="D59" s="225" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="225"/>
-      <c r="F59" s="225"/>
-      <c r="G59" s="225"/>
-      <c r="H59" s="225"/>
-      <c r="I59" s="226"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="226"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
+      <c r="I59" s="227"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="223"/>
-      <c r="D60" s="227"/>
-      <c r="E60" s="228"/>
-      <c r="F60" s="228"/>
-      <c r="G60" s="228"/>
-      <c r="H60" s="228"/>
-      <c r="I60" s="229"/>
+      <c r="C60" s="224"/>
+      <c r="D60" s="228"/>
+      <c r="E60" s="229"/>
+      <c r="F60" s="229"/>
+      <c r="G60" s="229"/>
+      <c r="H60" s="229"/>
+      <c r="I60" s="230"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="222" t="s">
+      <c r="C61" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="224" t="s">
+      <c r="D61" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="225"/>
-      <c r="F61" s="225"/>
-      <c r="G61" s="225"/>
-      <c r="H61" s="225"/>
-      <c r="I61" s="226"/>
+      <c r="E61" s="226"/>
+      <c r="F61" s="226"/>
+      <c r="G61" s="226"/>
+      <c r="H61" s="226"/>
+      <c r="I61" s="227"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="223"/>
-      <c r="D62" s="227"/>
-      <c r="E62" s="228"/>
-      <c r="F62" s="228"/>
-      <c r="G62" s="228"/>
-      <c r="H62" s="228"/>
-      <c r="I62" s="229"/>
+      <c r="C62" s="224"/>
+      <c r="D62" s="228"/>
+      <c r="E62" s="229"/>
+      <c r="F62" s="229"/>
+      <c r="G62" s="229"/>
+      <c r="H62" s="229"/>
+      <c r="I62" s="230"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="222" t="s">
+      <c r="C63" s="223" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="224" t="s">
+      <c r="D63" s="225" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="225"/>
-      <c r="F63" s="225"/>
-      <c r="G63" s="225"/>
-      <c r="H63" s="225"/>
-      <c r="I63" s="226"/>
+      <c r="E63" s="226"/>
+      <c r="F63" s="226"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="226"/>
+      <c r="I63" s="227"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="223"/>
-      <c r="D64" s="227"/>
-      <c r="E64" s="228"/>
-      <c r="F64" s="228"/>
-      <c r="G64" s="228"/>
-      <c r="H64" s="228"/>
-      <c r="I64" s="229"/>
+      <c r="C64" s="224"/>
+      <c r="D64" s="228"/>
+      <c r="E64" s="229"/>
+      <c r="F64" s="229"/>
+      <c r="G64" s="229"/>
+      <c r="H64" s="229"/>
+      <c r="I64" s="230"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="222" t="s">
+      <c r="C65" s="223" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="224" t="s">
+      <c r="D65" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="225"/>
-      <c r="F65" s="225"/>
-      <c r="G65" s="225"/>
-      <c r="H65" s="225"/>
-      <c r="I65" s="226"/>
+      <c r="E65" s="226"/>
+      <c r="F65" s="226"/>
+      <c r="G65" s="226"/>
+      <c r="H65" s="226"/>
+      <c r="I65" s="227"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="230"/>
-      <c r="D66" s="231"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="136"/>
-      <c r="G66" s="136"/>
-      <c r="H66" s="136"/>
-      <c r="I66" s="232"/>
+      <c r="C66" s="231"/>
+      <c r="D66" s="232"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="233"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="223"/>
-      <c r="D67" s="227"/>
-      <c r="E67" s="228"/>
-      <c r="F67" s="228"/>
-      <c r="G67" s="228"/>
-      <c r="H67" s="228"/>
-      <c r="I67" s="229"/>
+      <c r="C67" s="224"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="229"/>
+      <c r="F67" s="229"/>
+      <c r="G67" s="229"/>
+      <c r="H67" s="229"/>
+      <c r="I67" s="230"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="222" t="s">
+      <c r="C68" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="224" t="s">
+      <c r="D68" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="225"/>
-      <c r="F68" s="225"/>
-      <c r="G68" s="225"/>
-      <c r="H68" s="225"/>
-      <c r="I68" s="226"/>
+      <c r="E68" s="226"/>
+      <c r="F68" s="226"/>
+      <c r="G68" s="226"/>
+      <c r="H68" s="226"/>
+      <c r="I68" s="227"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="230"/>
-      <c r="D69" s="231"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="136"/>
-      <c r="G69" s="136"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="232"/>
+      <c r="C69" s="231"/>
+      <c r="D69" s="232"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="233"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="223"/>
-      <c r="D70" s="227"/>
-      <c r="E70" s="228"/>
-      <c r="F70" s="228"/>
-      <c r="G70" s="228"/>
-      <c r="H70" s="228"/>
-      <c r="I70" s="229"/>
+      <c r="C70" s="224"/>
+      <c r="D70" s="228"/>
+      <c r="E70" s="229"/>
+      <c r="F70" s="229"/>
+      <c r="G70" s="229"/>
+      <c r="H70" s="229"/>
+      <c r="I70" s="230"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -9170,53 +9199,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="214" t="s">
+      <c r="D74" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="215"/>
-      <c r="F74" s="215"/>
-      <c r="G74" s="215"/>
-      <c r="H74" s="215"/>
-      <c r="I74" s="216"/>
+      <c r="E74" s="216"/>
+      <c r="F74" s="216"/>
+      <c r="G74" s="216"/>
+      <c r="H74" s="216"/>
+      <c r="I74" s="217"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="217" t="s">
+      <c r="D75" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="218"/>
-      <c r="F75" s="218"/>
-      <c r="G75" s="218"/>
-      <c r="H75" s="218"/>
-      <c r="I75" s="219"/>
+      <c r="E75" s="219"/>
+      <c r="F75" s="219"/>
+      <c r="G75" s="219"/>
+      <c r="H75" s="219"/>
+      <c r="I75" s="220"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="217" t="s">
+      <c r="D76" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="218"/>
-      <c r="F76" s="218"/>
-      <c r="G76" s="218"/>
-      <c r="H76" s="218"/>
-      <c r="I76" s="219"/>
+      <c r="E76" s="219"/>
+      <c r="F76" s="219"/>
+      <c r="G76" s="219"/>
+      <c r="H76" s="219"/>
+      <c r="I76" s="220"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="217" t="s">
+      <c r="D77" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="218"/>
-      <c r="F77" s="218"/>
-      <c r="G77" s="218"/>
-      <c r="H77" s="218"/>
-      <c r="I77" s="219"/>
+      <c r="E77" s="219"/>
+      <c r="F77" s="219"/>
+      <c r="G77" s="219"/>
+      <c r="H77" s="219"/>
+      <c r="I77" s="220"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -9235,23 +9264,23 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="220" t="s">
+      <c r="C91" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="220"/>
+      <c r="D91" s="221"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="221">
+      <c r="G91" s="222">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="H91" s="221"/>
-      <c r="I91" s="221"/>
+        <v>45357</v>
+      </c>
+      <c r="H91" s="222"/>
+      <c r="I91" s="222"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="213"/>
-      <c r="H92" s="213"/>
+      <c r="G92" s="214"/>
+      <c r="H92" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -9419,40 +9448,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="220" t="s">
+      <c r="C13" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="220"/>
+      <c r="D13" s="221"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="220" t="s">
+      <c r="F13" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="221"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="237" t="s">
+      <c r="C14" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="237"/>
-      <c r="F14" s="237" t="s">
+      <c r="D14" s="238"/>
+      <c r="F14" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="238"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="221" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -9461,232 +9490,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="240" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="240"/>
+      <c r="I18" s="240"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="240"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="241"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="240" t="s">
+      <c r="B20" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
-      <c r="E20" s="240"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="240"/>
-      <c r="I20" s="240"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="241"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="245" t="s">
+      <c r="D26" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="245"/>
-      <c r="F26" s="245"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="245"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="246"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="242" t="s">
+      <c r="C27" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="243" t="s">
+      <c r="D27" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="243"/>
-      <c r="F27" s="243"/>
-      <c r="G27" s="243"/>
-      <c r="H27" s="243"/>
-      <c r="I27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="242"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="243"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="243"/>
-      <c r="I28" s="243"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="242"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="243"/>
-      <c r="I29" s="243"/>
+      <c r="C29" s="243"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="242" t="s">
+      <c r="C30" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="243"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="243"/>
-      <c r="I30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="244"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="242"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="243"/>
-      <c r="I31" s="243"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="242"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="243"/>
-      <c r="H32" s="243"/>
-      <c r="I32" s="243"/>
+      <c r="C32" s="243"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="244"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="242" t="s">
+      <c r="C33" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="243" t="s">
+      <c r="D33" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="244"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="242"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="243"/>
-      <c r="F34" s="243"/>
-      <c r="G34" s="243"/>
-      <c r="H34" s="243"/>
-      <c r="I34" s="243"/>
+      <c r="C34" s="243"/>
+      <c r="D34" s="244"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="244"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="242"/>
-      <c r="D35" s="243"/>
-      <c r="E35" s="243"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="243"/>
-      <c r="I35" s="243"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="244"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="244"/>
+      <c r="I35" s="244"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="242" t="s">
+      <c r="C36" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="243" t="s">
+      <c r="D36" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="243"/>
-      <c r="F36" s="243"/>
-      <c r="G36" s="243"/>
-      <c r="H36" s="243"/>
-      <c r="I36" s="243"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="244"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="242"/>
-      <c r="D37" s="243"/>
-      <c r="E37" s="243"/>
-      <c r="F37" s="243"/>
-      <c r="G37" s="243"/>
-      <c r="H37" s="243"/>
-      <c r="I37" s="243"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="244"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="244"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="242"/>
-      <c r="D38" s="243"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="243"/>
-      <c r="G38" s="243"/>
-      <c r="H38" s="243"/>
-      <c r="I38" s="243"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="244"/>
+      <c r="E38" s="244"/>
+      <c r="F38" s="244"/>
+      <c r="G38" s="244"/>
+      <c r="H38" s="244"/>
+      <c r="I38" s="244"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9727,157 +9756,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="136" t="s">
+      <c r="C56" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="245"/>
-      <c r="F58" s="245"/>
-      <c r="G58" s="245"/>
-      <c r="H58" s="245"/>
-      <c r="I58" s="245"/>
+      <c r="E58" s="246"/>
+      <c r="F58" s="246"/>
+      <c r="G58" s="246"/>
+      <c r="H58" s="246"/>
+      <c r="I58" s="246"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="242" t="s">
+      <c r="C59" s="243" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="243" t="s">
+      <c r="D59" s="244" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="243"/>
-      <c r="F59" s="243"/>
-      <c r="G59" s="243"/>
-      <c r="H59" s="243"/>
-      <c r="I59" s="243"/>
+      <c r="E59" s="244"/>
+      <c r="F59" s="244"/>
+      <c r="G59" s="244"/>
+      <c r="H59" s="244"/>
+      <c r="I59" s="244"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="242"/>
-      <c r="D60" s="243"/>
-      <c r="E60" s="243"/>
-      <c r="F60" s="243"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="243"/>
-      <c r="I60" s="243"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="244"/>
+      <c r="E60" s="244"/>
+      <c r="F60" s="244"/>
+      <c r="G60" s="244"/>
+      <c r="H60" s="244"/>
+      <c r="I60" s="244"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="242" t="s">
+      <c r="C61" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="243" t="s">
+      <c r="D61" s="244" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="243"/>
-      <c r="F61" s="243"/>
-      <c r="G61" s="243"/>
-      <c r="H61" s="243"/>
-      <c r="I61" s="243"/>
+      <c r="E61" s="244"/>
+      <c r="F61" s="244"/>
+      <c r="G61" s="244"/>
+      <c r="H61" s="244"/>
+      <c r="I61" s="244"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="242"/>
-      <c r="D62" s="243"/>
-      <c r="E62" s="243"/>
-      <c r="F62" s="243"/>
-      <c r="G62" s="243"/>
-      <c r="H62" s="243"/>
-      <c r="I62" s="243"/>
+      <c r="C62" s="243"/>
+      <c r="D62" s="244"/>
+      <c r="E62" s="244"/>
+      <c r="F62" s="244"/>
+      <c r="G62" s="244"/>
+      <c r="H62" s="244"/>
+      <c r="I62" s="244"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="242" t="s">
+      <c r="C63" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="243" t="s">
+      <c r="D63" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="243"/>
-      <c r="F63" s="243"/>
-      <c r="G63" s="243"/>
-      <c r="H63" s="243"/>
-      <c r="I63" s="243"/>
+      <c r="E63" s="244"/>
+      <c r="F63" s="244"/>
+      <c r="G63" s="244"/>
+      <c r="H63" s="244"/>
+      <c r="I63" s="244"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="242"/>
-      <c r="D64" s="243"/>
-      <c r="E64" s="243"/>
-      <c r="F64" s="243"/>
-      <c r="G64" s="243"/>
-      <c r="H64" s="243"/>
-      <c r="I64" s="243"/>
+      <c r="C64" s="243"/>
+      <c r="D64" s="244"/>
+      <c r="E64" s="244"/>
+      <c r="F64" s="244"/>
+      <c r="G64" s="244"/>
+      <c r="H64" s="244"/>
+      <c r="I64" s="244"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="242" t="s">
+      <c r="C65" s="243" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="243" t="s">
+      <c r="D65" s="244" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="243"/>
-      <c r="F65" s="243"/>
-      <c r="G65" s="243"/>
-      <c r="H65" s="243"/>
-      <c r="I65" s="243"/>
+      <c r="E65" s="244"/>
+      <c r="F65" s="244"/>
+      <c r="G65" s="244"/>
+      <c r="H65" s="244"/>
+      <c r="I65" s="244"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="242"/>
-      <c r="D66" s="243"/>
-      <c r="E66" s="243"/>
-      <c r="F66" s="243"/>
-      <c r="G66" s="243"/>
-      <c r="H66" s="243"/>
-      <c r="I66" s="243"/>
+      <c r="C66" s="243"/>
+      <c r="D66" s="244"/>
+      <c r="E66" s="244"/>
+      <c r="F66" s="244"/>
+      <c r="G66" s="244"/>
+      <c r="H66" s="244"/>
+      <c r="I66" s="244"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="242"/>
-      <c r="D67" s="243"/>
-      <c r="E67" s="243"/>
-      <c r="F67" s="243"/>
-      <c r="G67" s="243"/>
-      <c r="H67" s="243"/>
-      <c r="I67" s="243"/>
+      <c r="C67" s="243"/>
+      <c r="D67" s="244"/>
+      <c r="E67" s="244"/>
+      <c r="F67" s="244"/>
+      <c r="G67" s="244"/>
+      <c r="H67" s="244"/>
+      <c r="I67" s="244"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="242" t="s">
+      <c r="C68" s="243" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="243" t="s">
+      <c r="D68" s="244" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="243"/>
-      <c r="F68" s="243"/>
-      <c r="G68" s="243"/>
-      <c r="H68" s="243"/>
-      <c r="I68" s="243"/>
+      <c r="E68" s="244"/>
+      <c r="F68" s="244"/>
+      <c r="G68" s="244"/>
+      <c r="H68" s="244"/>
+      <c r="I68" s="244"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="242"/>
-      <c r="D69" s="243"/>
-      <c r="E69" s="243"/>
-      <c r="F69" s="243"/>
-      <c r="G69" s="243"/>
-      <c r="H69" s="243"/>
-      <c r="I69" s="243"/>
+      <c r="C69" s="243"/>
+      <c r="D69" s="244"/>
+      <c r="E69" s="244"/>
+      <c r="F69" s="244"/>
+      <c r="G69" s="244"/>
+      <c r="H69" s="244"/>
+      <c r="I69" s="244"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="242"/>
-      <c r="D70" s="243"/>
-      <c r="E70" s="243"/>
-      <c r="F70" s="243"/>
-      <c r="G70" s="243"/>
-      <c r="H70" s="243"/>
-      <c r="I70" s="243"/>
+      <c r="C70" s="243"/>
+      <c r="D70" s="244"/>
+      <c r="E70" s="244"/>
+      <c r="F70" s="244"/>
+      <c r="G70" s="244"/>
+      <c r="H70" s="244"/>
+      <c r="I70" s="244"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -9888,53 +9917,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="244" t="s">
+      <c r="D74" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="244"/>
-      <c r="F74" s="244"/>
-      <c r="G74" s="244"/>
-      <c r="H74" s="244"/>
-      <c r="I74" s="244"/>
+      <c r="E74" s="245"/>
+      <c r="F74" s="245"/>
+      <c r="G74" s="245"/>
+      <c r="H74" s="245"/>
+      <c r="I74" s="245"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="241" t="s">
+      <c r="D75" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="241"/>
-      <c r="F75" s="241"/>
-      <c r="G75" s="241"/>
-      <c r="H75" s="241"/>
-      <c r="I75" s="241"/>
+      <c r="E75" s="242"/>
+      <c r="F75" s="242"/>
+      <c r="G75" s="242"/>
+      <c r="H75" s="242"/>
+      <c r="I75" s="242"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="241" t="s">
+      <c r="D76" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="241"/>
-      <c r="F76" s="241"/>
-      <c r="G76" s="241"/>
-      <c r="H76" s="241"/>
-      <c r="I76" s="241"/>
+      <c r="E76" s="242"/>
+      <c r="F76" s="242"/>
+      <c r="G76" s="242"/>
+      <c r="H76" s="242"/>
+      <c r="I76" s="242"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="241" t="s">
+      <c r="D77" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="241"/>
-      <c r="F77" s="241"/>
-      <c r="G77" s="241"/>
-      <c r="H77" s="241"/>
-      <c r="I77" s="241"/>
+      <c r="E77" s="242"/>
+      <c r="F77" s="242"/>
+      <c r="G77" s="242"/>
+      <c r="H77" s="242"/>
+      <c r="I77" s="242"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -9951,23 +9980,23 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="220" t="s">
+      <c r="C91" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="220"/>
+      <c r="D91" s="221"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="221">
+      <c r="G91" s="222">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="H91" s="221"/>
-      <c r="I91" s="221"/>
+        <v>45357</v>
+      </c>
+      <c r="H91" s="222"/>
+      <c r="I91" s="222"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="146"/>
-      <c r="H92" s="146"/>
+      <c r="G92" s="150"/>
+      <c r="H92" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -10042,7 +10071,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10079,28 +10108,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="177"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -10127,15 +10156,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10160,15 +10189,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -10209,16 +10238,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -10308,48 +10337,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="135" t="s">
+      <c r="B45" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177"/>
+      <c r="C46" s="178"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
-      <c r="E47" s="177"/>
-      <c r="F47" s="177"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="177"/>
+      <c r="B47" s="178"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="178"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="178"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
-      <c r="E48" s="177"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="177"/>
+      <c r="B48" s="178"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="178"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -10362,16 +10391,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="135" t="s">
+      <c r="B59" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -10385,16 +10414,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="135" t="s">
+      <c r="B62" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -10417,218 +10446,218 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="177" t="s">
+      <c r="B68" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="177"/>
-      <c r="D68" s="177"/>
-      <c r="E68" s="177"/>
-      <c r="F68" s="177"/>
-      <c r="G68" s="177"/>
-      <c r="H68" s="177"/>
-      <c r="I68" s="177"/>
+      <c r="C68" s="178"/>
+      <c r="D68" s="178"/>
+      <c r="E68" s="178"/>
+      <c r="F68" s="178"/>
+      <c r="G68" s="178"/>
+      <c r="H68" s="178"/>
+      <c r="I68" s="178"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="177"/>
-      <c r="C69" s="177"/>
-      <c r="D69" s="177"/>
-      <c r="E69" s="177"/>
-      <c r="F69" s="177"/>
-      <c r="G69" s="177"/>
-      <c r="H69" s="177"/>
-      <c r="I69" s="177"/>
+      <c r="B69" s="178"/>
+      <c r="C69" s="178"/>
+      <c r="D69" s="178"/>
+      <c r="E69" s="178"/>
+      <c r="F69" s="178"/>
+      <c r="G69" s="178"/>
+      <c r="H69" s="178"/>
+      <c r="I69" s="178"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="246"/>
-      <c r="C71" s="247"/>
-      <c r="D71" s="250" t="s">
+      <c r="B71" s="247"/>
+      <c r="C71" s="248"/>
+      <c r="D71" s="251" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="251"/>
-      <c r="F71" s="250" t="s">
+      <c r="E71" s="252"/>
+      <c r="F71" s="251" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="251"/>
-      <c r="H71" s="250" t="s">
+      <c r="G71" s="252"/>
+      <c r="H71" s="251" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="251"/>
+      <c r="I71" s="252"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="248"/>
-      <c r="C72" s="249"/>
-      <c r="D72" s="252"/>
-      <c r="E72" s="253"/>
-      <c r="F72" s="252"/>
-      <c r="G72" s="253"/>
-      <c r="H72" s="252"/>
-      <c r="I72" s="253"/>
+      <c r="B72" s="249"/>
+      <c r="C72" s="250"/>
+      <c r="D72" s="253"/>
+      <c r="E72" s="254"/>
+      <c r="F72" s="253"/>
+      <c r="G72" s="254"/>
+      <c r="H72" s="253"/>
+      <c r="I72" s="254"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="257" t="s">
+      <c r="B73" s="258" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="258"/>
-      <c r="D73" s="254"/>
-      <c r="E73" s="255"/>
-      <c r="F73" s="256"/>
-      <c r="G73" s="255"/>
-      <c r="H73" s="256"/>
-      <c r="I73" s="255"/>
+      <c r="C73" s="259"/>
+      <c r="D73" s="255"/>
+      <c r="E73" s="256"/>
+      <c r="F73" s="257"/>
+      <c r="G73" s="256"/>
+      <c r="H73" s="257"/>
+      <c r="I73" s="256"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="177" t="s">
+      <c r="B75" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="177"/>
-      <c r="D75" s="177"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
-      <c r="I75" s="177"/>
+      <c r="C75" s="178"/>
+      <c r="D75" s="178"/>
+      <c r="E75" s="178"/>
+      <c r="F75" s="178"/>
+      <c r="G75" s="178"/>
+      <c r="H75" s="178"/>
+      <c r="I75" s="178"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="177"/>
-      <c r="C76" s="177"/>
-      <c r="D76" s="177"/>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="177"/>
-      <c r="H76" s="177"/>
-      <c r="I76" s="177"/>
+      <c r="B76" s="178"/>
+      <c r="C76" s="178"/>
+      <c r="D76" s="178"/>
+      <c r="E76" s="178"/>
+      <c r="F76" s="178"/>
+      <c r="G76" s="178"/>
+      <c r="H76" s="178"/>
+      <c r="I76" s="178"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="259" t="s">
+      <c r="E78" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="260"/>
-      <c r="G78" s="260"/>
-      <c r="H78" s="260"/>
+      <c r="F78" s="261"/>
+      <c r="G78" s="261"/>
+      <c r="H78" s="261"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="260"/>
-      <c r="F79" s="260"/>
-      <c r="G79" s="260"/>
-      <c r="H79" s="260"/>
+      <c r="E79" s="261"/>
+      <c r="F79" s="261"/>
+      <c r="G79" s="261"/>
+      <c r="H79" s="261"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="136" t="s">
+      <c r="A81" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="136"/>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="136"/>
-      <c r="F81" s="136"/>
-      <c r="G81" s="136"/>
-      <c r="H81" s="136"/>
-      <c r="I81" s="136"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="140"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="140"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="140"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="136"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="136"/>
-      <c r="F82" s="136"/>
-      <c r="G82" s="136"/>
-      <c r="H82" s="136"/>
-      <c r="I82" s="136"/>
+      <c r="A82" s="140"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="140"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="136"/>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
-      <c r="G83" s="136"/>
-      <c r="H83" s="136"/>
-      <c r="I83" s="136"/>
+      <c r="A83" s="140"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="136"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136"/>
-      <c r="G84" s="136"/>
-      <c r="H84" s="136"/>
-      <c r="I84" s="136"/>
+      <c r="A84" s="140"/>
+      <c r="B84" s="140"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="140"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="140"/>
+      <c r="H84" s="140"/>
+      <c r="I84" s="140"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="136"/>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136"/>
-      <c r="G85" s="136"/>
-      <c r="H85" s="136"/>
-      <c r="I85" s="136"/>
+      <c r="A85" s="140"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="140"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="136"/>
-      <c r="B86" s="136"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136"/>
-      <c r="G86" s="136"/>
-      <c r="H86" s="136"/>
-      <c r="I86" s="136"/>
+      <c r="A86" s="140"/>
+      <c r="B86" s="140"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="140"/>
+      <c r="I86" s="140"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="136"/>
-      <c r="B87" s="136"/>
-      <c r="C87" s="136"/>
-      <c r="D87" s="136"/>
-      <c r="E87" s="136"/>
-      <c r="F87" s="136"/>
-      <c r="G87" s="136"/>
-      <c r="H87" s="136"/>
-      <c r="I87" s="136"/>
+      <c r="A87" s="140"/>
+      <c r="B87" s="140"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140"/>
+      <c r="F87" s="140"/>
+      <c r="G87" s="140"/>
+      <c r="H87" s="140"/>
+      <c r="I87" s="140"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="136"/>
-      <c r="B88" s="136"/>
-      <c r="C88" s="136"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="136"/>
-      <c r="F88" s="136"/>
-      <c r="G88" s="136"/>
-      <c r="H88" s="136"/>
-      <c r="I88" s="136"/>
+      <c r="A88" s="140"/>
+      <c r="B88" s="140"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="140"/>
+      <c r="H88" s="140"/>
+      <c r="I88" s="140"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="136"/>
-      <c r="B89" s="136"/>
-      <c r="C89" s="136"/>
-      <c r="D89" s="136"/>
-      <c r="E89" s="136"/>
-      <c r="F89" s="136"/>
-      <c r="G89" s="136"/>
-      <c r="H89" s="136"/>
-      <c r="I89" s="136"/>
+      <c r="A89" s="140"/>
+      <c r="B89" s="140"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="140"/>
+      <c r="E89" s="140"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="140"/>
+      <c r="H89" s="140"/>
+      <c r="I89" s="140"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="136"/>
-      <c r="B90" s="136"/>
-      <c r="C90" s="136"/>
-      <c r="D90" s="136"/>
-      <c r="E90" s="136"/>
-      <c r="F90" s="136"/>
-      <c r="G90" s="136"/>
-      <c r="H90" s="136"/>
-      <c r="I90" s="136"/>
+      <c r="A90" s="140"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="140"/>
+      <c r="E90" s="140"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="140"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -10676,7 +10705,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10713,28 +10742,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="177"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -10761,15 +10790,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10794,15 +10823,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -10843,16 +10872,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -10942,48 +10971,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="135" t="s">
+      <c r="B45" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177"/>
+      <c r="C46" s="178"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
-      <c r="E47" s="177"/>
-      <c r="F47" s="177"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="177"/>
+      <c r="B47" s="178"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="178"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="178"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
-      <c r="E48" s="177"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="177"/>
+      <c r="B48" s="178"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="178"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -10996,16 +11025,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="135" t="s">
+      <c r="B59" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -11019,16 +11048,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="135" t="s">
+      <c r="B62" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11051,218 +11080,218 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="177" t="s">
+      <c r="B68" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="177"/>
-      <c r="D68" s="177"/>
-      <c r="E68" s="177"/>
-      <c r="F68" s="177"/>
-      <c r="G68" s="177"/>
-      <c r="H68" s="177"/>
-      <c r="I68" s="177"/>
+      <c r="C68" s="178"/>
+      <c r="D68" s="178"/>
+      <c r="E68" s="178"/>
+      <c r="F68" s="178"/>
+      <c r="G68" s="178"/>
+      <c r="H68" s="178"/>
+      <c r="I68" s="178"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="177"/>
-      <c r="C69" s="177"/>
-      <c r="D69" s="177"/>
-      <c r="E69" s="177"/>
-      <c r="F69" s="177"/>
-      <c r="G69" s="177"/>
-      <c r="H69" s="177"/>
-      <c r="I69" s="177"/>
+      <c r="B69" s="178"/>
+      <c r="C69" s="178"/>
+      <c r="D69" s="178"/>
+      <c r="E69" s="178"/>
+      <c r="F69" s="178"/>
+      <c r="G69" s="178"/>
+      <c r="H69" s="178"/>
+      <c r="I69" s="178"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="246"/>
-      <c r="C71" s="247"/>
-      <c r="D71" s="250" t="s">
+      <c r="B71" s="247"/>
+      <c r="C71" s="248"/>
+      <c r="D71" s="251" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="251"/>
-      <c r="F71" s="250" t="s">
+      <c r="E71" s="252"/>
+      <c r="F71" s="251" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="251"/>
-      <c r="H71" s="250" t="s">
+      <c r="G71" s="252"/>
+      <c r="H71" s="251" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="251"/>
+      <c r="I71" s="252"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="248"/>
-      <c r="C72" s="249"/>
-      <c r="D72" s="252"/>
-      <c r="E72" s="253"/>
-      <c r="F72" s="252"/>
-      <c r="G72" s="253"/>
-      <c r="H72" s="252"/>
-      <c r="I72" s="253"/>
+      <c r="B72" s="249"/>
+      <c r="C72" s="250"/>
+      <c r="D72" s="253"/>
+      <c r="E72" s="254"/>
+      <c r="F72" s="253"/>
+      <c r="G72" s="254"/>
+      <c r="H72" s="253"/>
+      <c r="I72" s="254"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="257" t="s">
+      <c r="B73" s="258" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="258"/>
-      <c r="D73" s="254"/>
-      <c r="E73" s="255"/>
-      <c r="F73" s="256"/>
-      <c r="G73" s="255"/>
-      <c r="H73" s="256"/>
-      <c r="I73" s="255"/>
+      <c r="C73" s="259"/>
+      <c r="D73" s="255"/>
+      <c r="E73" s="256"/>
+      <c r="F73" s="257"/>
+      <c r="G73" s="256"/>
+      <c r="H73" s="257"/>
+      <c r="I73" s="256"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="177" t="s">
+      <c r="B75" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="177"/>
-      <c r="D75" s="177"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
-      <c r="I75" s="177"/>
+      <c r="C75" s="178"/>
+      <c r="D75" s="178"/>
+      <c r="E75" s="178"/>
+      <c r="F75" s="178"/>
+      <c r="G75" s="178"/>
+      <c r="H75" s="178"/>
+      <c r="I75" s="178"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="177"/>
-      <c r="C76" s="177"/>
-      <c r="D76" s="177"/>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="177"/>
-      <c r="H76" s="177"/>
-      <c r="I76" s="177"/>
+      <c r="B76" s="178"/>
+      <c r="C76" s="178"/>
+      <c r="D76" s="178"/>
+      <c r="E76" s="178"/>
+      <c r="F76" s="178"/>
+      <c r="G76" s="178"/>
+      <c r="H76" s="178"/>
+      <c r="I76" s="178"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="259" t="s">
+      <c r="E78" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="260"/>
-      <c r="G78" s="260"/>
-      <c r="H78" s="260"/>
+      <c r="F78" s="261"/>
+      <c r="G78" s="261"/>
+      <c r="H78" s="261"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="260"/>
-      <c r="F79" s="260"/>
-      <c r="G79" s="260"/>
-      <c r="H79" s="260"/>
+      <c r="E79" s="261"/>
+      <c r="F79" s="261"/>
+      <c r="G79" s="261"/>
+      <c r="H79" s="261"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="136" t="s">
+      <c r="A81" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="136"/>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="136"/>
-      <c r="F81" s="136"/>
-      <c r="G81" s="136"/>
-      <c r="H81" s="136"/>
-      <c r="I81" s="136"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="140"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="140"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="140"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="136"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="136"/>
-      <c r="F82" s="136"/>
-      <c r="G82" s="136"/>
-      <c r="H82" s="136"/>
-      <c r="I82" s="136"/>
+      <c r="A82" s="140"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="140"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="136"/>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
-      <c r="G83" s="136"/>
-      <c r="H83" s="136"/>
-      <c r="I83" s="136"/>
+      <c r="A83" s="140"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="136"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136"/>
-      <c r="G84" s="136"/>
-      <c r="H84" s="136"/>
-      <c r="I84" s="136"/>
+      <c r="A84" s="140"/>
+      <c r="B84" s="140"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="140"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="140"/>
+      <c r="H84" s="140"/>
+      <c r="I84" s="140"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="136"/>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136"/>
-      <c r="G85" s="136"/>
-      <c r="H85" s="136"/>
-      <c r="I85" s="136"/>
+      <c r="A85" s="140"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="140"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="136"/>
-      <c r="B86" s="136"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136"/>
-      <c r="G86" s="136"/>
-      <c r="H86" s="136"/>
-      <c r="I86" s="136"/>
+      <c r="A86" s="140"/>
+      <c r="B86" s="140"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="140"/>
+      <c r="I86" s="140"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="136"/>
-      <c r="B87" s="136"/>
-      <c r="C87" s="136"/>
-      <c r="D87" s="136"/>
-      <c r="E87" s="136"/>
-      <c r="F87" s="136"/>
-      <c r="G87" s="136"/>
-      <c r="H87" s="136"/>
-      <c r="I87" s="136"/>
+      <c r="A87" s="140"/>
+      <c r="B87" s="140"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140"/>
+      <c r="F87" s="140"/>
+      <c r="G87" s="140"/>
+      <c r="H87" s="140"/>
+      <c r="I87" s="140"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="136"/>
-      <c r="B88" s="136"/>
-      <c r="C88" s="136"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="136"/>
-      <c r="F88" s="136"/>
-      <c r="G88" s="136"/>
-      <c r="H88" s="136"/>
-      <c r="I88" s="136"/>
+      <c r="A88" s="140"/>
+      <c r="B88" s="140"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="140"/>
+      <c r="H88" s="140"/>
+      <c r="I88" s="140"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="136"/>
-      <c r="B89" s="136"/>
-      <c r="C89" s="136"/>
-      <c r="D89" s="136"/>
-      <c r="E89" s="136"/>
-      <c r="F89" s="136"/>
-      <c r="G89" s="136"/>
-      <c r="H89" s="136"/>
-      <c r="I89" s="136"/>
+      <c r="A89" s="140"/>
+      <c r="B89" s="140"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="140"/>
+      <c r="E89" s="140"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="140"/>
+      <c r="H89" s="140"/>
+      <c r="I89" s="140"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="136"/>
-      <c r="B90" s="136"/>
-      <c r="C90" s="136"/>
-      <c r="D90" s="136"/>
-      <c r="E90" s="136"/>
-      <c r="F90" s="136"/>
-      <c r="G90" s="136"/>
-      <c r="H90" s="136"/>
-      <c r="I90" s="136"/>
+      <c r="A90" s="140"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="140"/>
+      <c r="E90" s="140"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="140"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="20">
